--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85ED6A-108B-496E-AE7A-2BDFE453210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC02D3A-DF4E-47DA-B37B-6C896801129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
   <si>
     <t>Scenario 5</t>
   </si>
@@ -104,12 +104,18 @@
   <si>
     <t>/</t>
   </si>
+  <si>
+    <t>RISULTATI ROBODRINK OTTIMIZZATA</t>
+  </si>
+  <si>
+    <t>RISULTATI ROBODRINK NON OTTIMIZZATA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +133,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF7030A0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -261,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +322,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8394,13 +8425,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22523</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>354106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8432,13 +8463,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1088877</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>347383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8470,13 +8501,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8508,13 +8539,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1092462</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>10533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>46729</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>347383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8546,13 +8577,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22523</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>354106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8584,13 +8615,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1088877</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>347383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8622,13 +8653,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8660,13 +8691,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1092462</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>10533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>46729</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>347383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9230,13 +9261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:U52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
     <col min="2" max="5" width="16.21875" style="2"/>
@@ -9246,989 +9277,1067 @@
     <col min="12" max="16384" width="16.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="K2" s="1"/>
+    <row r="1" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="L4" s="3" t="s">
+      <c r="J5" s="5"/>
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="3" t="s">
+      <c r="O5" s="5"/>
+      <c r="Q5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="5"/>
+      <c r="T5" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>102.97</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>107.099188</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2">
-        <v>40.329000000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>82.498931999999996</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="L5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2">
-        <v>138.566</v>
-      </c>
-      <c r="N5" s="2">
-        <v>192.95286899999999</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="Q5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="8">
-        <f>M12</f>
-        <v>138.95179999999999</v>
-      </c>
-      <c r="S5" s="8">
-        <f>N12</f>
-        <v>180.15037240000001</v>
-      </c>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>101.68</v>
-      </c>
-      <c r="D6" s="2">
-        <v>79.198443999999995</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
-        <v>39.984000000000002</v>
+        <v>40.329000000000001</v>
       </c>
       <c r="I6" s="2">
-        <v>41.610183999999997</v>
+        <v>82.498931999999996</v>
       </c>
       <c r="J6" s="7"/>
       <c r="L6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M6" s="2">
-        <v>138.81700000000001</v>
+        <v>138.566</v>
       </c>
       <c r="N6" s="2">
-        <v>205.80058399999999</v>
+        <v>192.95286899999999</v>
       </c>
       <c r="O6" s="7"/>
       <c r="Q6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R6" s="8">
-        <f>H12</f>
-        <v>39.946600000000004</v>
+        <f>M13</f>
+        <v>138.95179999999999</v>
       </c>
       <c r="S6" s="8">
-        <f>I12</f>
-        <v>54.237206999999998</v>
+        <f>N13</f>
+        <v>180.15037240000001</v>
       </c>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>106.717</v>
+        <v>101.68</v>
       </c>
       <c r="D7" s="2">
-        <v>150.24098000000001</v>
+        <v>79.198443999999995</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>40.356000000000002</v>
+        <v>39.984000000000002</v>
       </c>
       <c r="I7" s="2">
-        <v>35.400556999999999</v>
+        <v>41.610183999999997</v>
       </c>
       <c r="J7" s="7"/>
       <c r="L7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M7" s="2">
-        <v>139.88499999999999</v>
+        <v>138.81700000000001</v>
       </c>
       <c r="N7" s="2">
-        <v>199.97241500000001</v>
+        <v>205.80058399999999</v>
       </c>
       <c r="O7" s="7"/>
       <c r="Q7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R7" s="8">
-        <f>C12</f>
-        <v>103.67720000000001</v>
+        <f>H13</f>
+        <v>39.946600000000004</v>
       </c>
       <c r="S7" s="8">
-        <f>D12</f>
-        <v>114.88823659999998</v>
+        <f>I13</f>
+        <v>54.237206999999998</v>
       </c>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>103.81399999999999</v>
+        <v>106.717</v>
       </c>
       <c r="D8" s="2">
-        <v>146.27462</v>
+        <v>150.24098000000001</v>
       </c>
       <c r="E8" s="7"/>
       <c r="G8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
-        <v>39.929000000000002</v>
+        <v>40.356000000000002</v>
       </c>
       <c r="I8" s="2">
-        <v>35.813851999999997</v>
+        <v>35.400556999999999</v>
       </c>
       <c r="J8" s="7"/>
       <c r="L8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M8" s="2">
-        <v>139.6</v>
+        <v>139.88499999999999</v>
       </c>
       <c r="N8" s="2">
-        <v>150.84999300000001</v>
+        <v>199.97241500000001</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="8">
+        <f>C13</f>
+        <v>103.67720000000001</v>
+      </c>
+      <c r="S8" s="8">
+        <f>D13</f>
+        <v>114.88823659999998</v>
+      </c>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>103.205</v>
+        <v>103.81399999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>91.627950999999996</v>
+        <v>146.27462</v>
       </c>
       <c r="E9" s="7"/>
       <c r="G9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2">
-        <v>39.134999999999998</v>
+        <v>39.929000000000002</v>
       </c>
       <c r="I9" s="2">
-        <v>75.86251</v>
+        <v>35.813851999999997</v>
       </c>
       <c r="J9" s="7"/>
       <c r="L9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="2">
-        <v>137.89099999999999</v>
+        <v>139.6</v>
       </c>
       <c r="N9" s="2">
-        <v>151.17600100000001</v>
+        <v>150.84999300000001</v>
       </c>
       <c r="O9" s="7"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="10" t="s">
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>103.205</v>
+      </c>
+      <c r="D10" s="2">
+        <v>91.627950999999996</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>39.134999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>75.86251</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="L10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2">
+        <v>137.89099999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>151.17600100000001</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="L10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="Q10" s="12" t="s">
+    <row r="11" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="L11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="8">
-        <f>AVERAGE(R5:R7)</f>
+      <c r="R11" s="8">
+        <f>AVERAGE(R6:R8)</f>
         <v>94.19186666666667</v>
       </c>
-      <c r="S10" s="8">
-        <f>AVERAGE(S5:S7)</f>
+      <c r="S11" s="8">
+        <f>AVERAGE(S6:S8)</f>
         <v>116.42527199999999</v>
       </c>
-      <c r="T10" s="7">
-        <f t="shared" ref="T10:T11" si="0">S10/R10</f>
+      <c r="T11" s="7">
+        <f t="shared" ref="T11:T12" si="0">S11/R11</f>
         <v>1.236043791466779</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+    <row r="12" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="8">
-        <f>MEDIAN(R5:R7)</f>
+      <c r="R12" s="8">
+        <f>MEDIAN(R6:R8)</f>
         <v>103.67720000000001</v>
       </c>
-      <c r="S11" s="8">
-        <f>MEDIAN(S5:S7)</f>
+      <c r="S12" s="8">
+        <f>MEDIAN(S6:S8)</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T12" s="7">
         <f t="shared" si="0"/>
         <v>1.1081340603334191</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8">
-        <f>AVERAGE(C5:C9)</f>
+      <c r="C13" s="8">
+        <f>AVERAGE(C6:C10)</f>
         <v>103.67720000000001</v>
       </c>
-      <c r="D12" s="8">
-        <f>AVERAGE(D5:D9)</f>
+      <c r="D13" s="8">
+        <f>AVERAGE(D6:D10)</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="E12" s="7">
-        <f>D12/C12</f>
+      <c r="E13" s="7">
+        <f>D13/C13</f>
         <v>1.1081340603334191</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="8">
-        <f>AVERAGE(H5:H9)</f>
+      <c r="H13" s="8">
+        <f>AVERAGE(H6:H10)</f>
         <v>39.946600000000004</v>
       </c>
-      <c r="I12" s="8">
-        <f t="shared" ref="I12" si="1">AVERAGE(I5:I9)</f>
+      <c r="I13" s="8">
+        <f t="shared" ref="I13" si="1">AVERAGE(I6:I10)</f>
         <v>54.237206999999998</v>
       </c>
-      <c r="J12" s="7">
-        <f t="shared" ref="J12:J13" si="2">I12/H12</f>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13:J14" si="2">I13/H13</f>
         <v>1.3577427615867181</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="8">
-        <f t="shared" ref="M12:N12" si="3">AVERAGE(M5:M9)</f>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13:N13" si="3">AVERAGE(M6:M10)</f>
         <v>138.95179999999999</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N13" s="8">
         <f t="shared" si="3"/>
         <v>180.15037240000001</v>
       </c>
-      <c r="O12" s="7">
-        <f t="shared" ref="O12:O13" si="4">N12/M12</f>
+      <c r="O13" s="7">
+        <f t="shared" ref="O13:O14" si="4">N13/M13</f>
         <v>1.2964954207142334</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="14">
-        <f>_xlfn.STDEV.P(R5:R7)</f>
+      <c r="R13" s="14">
+        <f>_xlfn.STDEV.P(R6:R8)</f>
         <v>40.971421487774741</v>
       </c>
-      <c r="S12" s="14">
-        <f>_xlfn.STDEV.P(S5:S7)</f>
+      <c r="S13" s="14">
+        <f>_xlfn.STDEV.P(S6:S8)</f>
         <v>51.415323031353083</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T13" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8">
-        <f>MEDIAN(C5:C9)</f>
+      <c r="C14" s="8">
+        <f>MEDIAN(C6:C10)</f>
         <v>103.205</v>
       </c>
-      <c r="D13" s="8">
-        <f>MEDIAN(D5:D9)</f>
+      <c r="D14" s="8">
+        <f>MEDIAN(D6:D10)</f>
         <v>107.099188</v>
       </c>
-      <c r="E13" s="7">
-        <f>D13/C13</f>
+      <c r="E14" s="7">
+        <f>D14/C14</f>
         <v>1.0377325517174556</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" ref="H13:I13" si="5">MEDIAN(H5:H9)</f>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14:I14" si="5">MEDIAN(H6:H10)</f>
         <v>39.984000000000002</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <f t="shared" si="5"/>
         <v>41.610183999999997</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <f t="shared" si="2"/>
         <v>1.0406708683473389</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="8">
-        <f t="shared" ref="M13:N13" si="6">MEDIAN(M5:M9)</f>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14:N14" si="6">MEDIAN(M6:M10)</f>
         <v>138.81700000000001</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N14" s="8">
         <f t="shared" si="6"/>
         <v>192.95286899999999</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O14" s="7">
         <f t="shared" si="4"/>
         <v>1.3899801105051974</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
-        <f>_xlfn.STDEV.P(C5:C9)</f>
+      <c r="C15" s="14">
+        <f>_xlfn.STDEV.P(C6:C10)</f>
         <v>1.6715867192580807</v>
       </c>
-      <c r="D14" s="14">
-        <f>_xlfn.STDEV.P(D5:D9)</f>
+      <c r="D15" s="14">
+        <f>_xlfn.STDEV.P(D6:D10)</f>
         <v>28.67191304728658</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="14">
-        <f t="shared" ref="H14" si="7">_xlfn.STDEV.P(H5:H9)</f>
+      <c r="H15" s="14">
+        <f t="shared" ref="H15" si="7">_xlfn.STDEV.P(H6:H10)</f>
         <v>0.44141617550787721</v>
       </c>
-      <c r="I14" s="14">
-        <f>_xlfn.STDEV.P(I5:I9)</f>
+      <c r="I15" s="14">
+        <f>_xlfn.STDEV.P(I6:I10)</f>
         <v>20.591551337082336</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="14">
-        <f t="shared" ref="M14:N14" si="8">_xlfn.STDEV.P(M5:M9)</f>
+      <c r="M15" s="14">
+        <f t="shared" ref="M15:N15" si="8">_xlfn.STDEV.P(M6:M10)</f>
         <v>0.71879549247334473</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N15" s="14">
         <f t="shared" si="8"/>
         <v>24.136184777893302</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O15" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="K29" s="1"/>
+    <row r="28" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="G31" s="3" t="s">
+      <c r="E32" s="5"/>
+      <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="L31" s="16" t="s">
+      <c r="J32" s="5"/>
+      <c r="L32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="Q31" s="3" t="s">
+      <c r="O32" s="5"/>
+      <c r="Q32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T31" s="5"/>
+      <c r="T32" s="5"/>
     </row>
-    <row r="32" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
+    <row r="33" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>101.74299999999999</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>133.066329</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="G32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="2">
-        <v>59.753</v>
-      </c>
-      <c r="I32" s="2">
-        <v>71.509658000000002</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="L32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="2">
-        <v>135.14699999999999</v>
-      </c>
-      <c r="N32" s="2">
-        <v>190.88302899999999</v>
-      </c>
-      <c r="O32" s="7"/>
-      <c r="Q32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="8">
-        <f>M39</f>
-        <v>133.93099999999998</v>
-      </c>
-      <c r="S32" s="8">
-        <f>N39</f>
-        <v>178.59186019999999</v>
-      </c>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2">
-        <v>94.453999999999994</v>
-      </c>
-      <c r="D33" s="2">
-        <v>89.647870999999995</v>
       </c>
       <c r="E33" s="7"/>
       <c r="G33" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2">
-        <v>38.305</v>
+        <v>59.753</v>
       </c>
       <c r="I33" s="2">
-        <v>67.098872999999998</v>
+        <v>71.509658000000002</v>
       </c>
       <c r="J33" s="7"/>
       <c r="L33" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M33" s="2">
-        <v>134.84899999999999</v>
+        <v>135.14699999999999</v>
       </c>
       <c r="N33" s="2">
-        <v>153.69038399999999</v>
+        <v>190.88302899999999</v>
       </c>
       <c r="O33" s="7"/>
       <c r="Q33" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R33" s="8">
-        <f>H39</f>
-        <v>10629.555</v>
+        <f>M40</f>
+        <v>133.93099999999998</v>
       </c>
       <c r="S33" s="8">
-        <f>I39</f>
-        <v>69.890517200000005</v>
+        <f>N40</f>
+        <v>178.59186019999999</v>
       </c>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>103.21599999999999</v>
+        <v>94.453999999999994</v>
       </c>
       <c r="D34" s="2">
-        <v>158.199432</v>
+        <v>89.647870999999995</v>
       </c>
       <c r="E34" s="7"/>
       <c r="G34" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>55.305</v>
+        <v>38.305</v>
       </c>
       <c r="I34" s="2">
-        <v>48.402011999999999</v>
+        <v>67.098872999999998</v>
       </c>
       <c r="J34" s="7"/>
       <c r="L34" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M34" s="2">
-        <v>131.483</v>
+        <v>134.84899999999999</v>
       </c>
       <c r="N34" s="2">
-        <v>188.336545</v>
+        <v>153.69038399999999</v>
       </c>
       <c r="O34" s="7"/>
       <c r="Q34" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R34" s="8">
-        <f>C39</f>
-        <v>100.46720000000001</v>
+        <f>H40</f>
+        <v>49.9452</v>
       </c>
       <c r="S34" s="8">
-        <f>D39</f>
-        <v>125.1630328</v>
+        <f>I40</f>
+        <v>69.890517200000005</v>
       </c>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>99.418000000000006</v>
+        <v>103.21599999999999</v>
       </c>
       <c r="D35" s="2">
-        <v>146.145983</v>
+        <v>158.199432</v>
       </c>
       <c r="E35" s="7"/>
       <c r="G35" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="2">
-        <v>43.411999999999999</v>
+        <v>55.305</v>
       </c>
       <c r="I35" s="2">
-        <v>70.126869999999997</v>
+        <v>48.402011999999999</v>
       </c>
       <c r="J35" s="7"/>
       <c r="L35" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M35" s="2">
-        <v>135.31899999999999</v>
+        <v>131.483</v>
       </c>
       <c r="N35" s="2">
-        <v>157.655112</v>
+        <v>188.336545</v>
       </c>
       <c r="O35" s="7"/>
-      <c r="Q35" s="9"/>
+      <c r="Q35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="8">
+        <f>C40</f>
+        <v>100.46720000000001</v>
+      </c>
+      <c r="S35" s="8">
+        <f>D40</f>
+        <v>125.1630328</v>
+      </c>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>103.505</v>
+        <v>99.418000000000006</v>
       </c>
       <c r="D36" s="2">
-        <v>98.755549000000002</v>
+        <v>146.145983</v>
       </c>
       <c r="E36" s="7"/>
       <c r="G36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="2">
-        <v>52951</v>
+        <v>43.411999999999999</v>
       </c>
       <c r="I36" s="2">
-        <v>92.315173000000001</v>
+        <v>70.126869999999997</v>
       </c>
       <c r="J36" s="7"/>
       <c r="L36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M36" s="2">
-        <v>132.857</v>
+        <v>135.31899999999999</v>
       </c>
       <c r="N36" s="2">
-        <v>202.39423099999999</v>
+        <v>157.655112</v>
       </c>
       <c r="O36" s="7"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="10" t="s">
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>103.505</v>
+      </c>
+      <c r="D37" s="2">
+        <v>98.755549000000002</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="G37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2">
+        <v>52.951000000000001</v>
+      </c>
+      <c r="I37" s="2">
+        <v>92.315173000000001</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="L37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="2">
+        <v>132.857</v>
+      </c>
+      <c r="N37" s="2">
+        <v>202.39423099999999</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S36" s="10" t="s">
+      <c r="S37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T37" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
-      <c r="E37" s="7"/>
-      <c r="G37" s="9"/>
-      <c r="J37" s="7"/>
-      <c r="L37" s="9"/>
-      <c r="O37" s="7"/>
-      <c r="Q37" s="12" t="s">
+    <row r="38" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="9"/>
+      <c r="J38" s="7"/>
+      <c r="L38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="Q38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="8">
-        <f>AVERAGE(R32:R34)</f>
-        <v>3621.3177333333333</v>
-      </c>
-      <c r="S37" s="8">
-        <f>AVERAGE(S32:S34)</f>
+      <c r="R38" s="8">
+        <f>AVERAGE(R33:R35)</f>
+        <v>94.781133333333329</v>
+      </c>
+      <c r="S38" s="8">
+        <f>AVERAGE(S33:S35)</f>
         <v>124.54847006666667</v>
       </c>
-      <c r="T37" s="7">
-        <f t="shared" ref="T37:T38" si="9">S37/R37</f>
-        <v>3.4393135106657126E-2</v>
+      <c r="T38" s="7">
+        <f t="shared" ref="T38:T39" si="9">S38/R38</f>
+        <v>1.3140639459189136</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="9"/>
-      <c r="C38" s="10" t="s">
+    <row r="39" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10" t="s">
+      <c r="L39" s="9"/>
+      <c r="M39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N38" s="10" t="s">
+      <c r="N39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="12" t="s">
+      <c r="Q39" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R38" s="8">
-        <f>MEDIAN(R32:R34)</f>
+      <c r="R39" s="8">
+        <f>MEDIAN(R33:R35)</f>
+        <v>100.46720000000001</v>
+      </c>
+      <c r="S39" s="8">
+        <f>MEDIAN(S33:S35)</f>
+        <v>125.1630328</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2458099041279143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="8">
+        <f>AVERAGE(C33:C37)</f>
+        <v>100.46720000000001</v>
+      </c>
+      <c r="D40" s="8">
+        <f>AVERAGE(D33:D37)</f>
+        <v>125.1630328</v>
+      </c>
+      <c r="E40" s="7">
+        <f>D40/C40</f>
+        <v>1.2458099041279143</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="8">
+        <f>AVERAGE(H33:H37)</f>
+        <v>49.9452</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" ref="I40" si="10">AVERAGE(I33:I37)</f>
+        <v>69.890517200000005</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" ref="J40:J41" si="11">I40/H40</f>
+        <v>1.3993440250514566</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" ref="M40:N40" si="12">AVERAGE(M33:M37)</f>
         <v>133.93099999999998</v>
       </c>
-      <c r="S38" s="8">
-        <f>MEDIAN(S32:S34)</f>
-        <v>125.1630328</v>
-      </c>
-      <c r="T38" s="7">
-        <f t="shared" si="9"/>
-        <v>0.9345336986955971</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="8">
-        <f>AVERAGE(C32:C36)</f>
-        <v>100.46720000000001</v>
-      </c>
-      <c r="D39" s="8">
-        <f>AVERAGE(D32:D36)</f>
-        <v>125.1630328</v>
-      </c>
-      <c r="E39" s="7">
-        <f>D39/C39</f>
-        <v>1.2458099041279143</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="8">
-        <f>AVERAGE(H32:H36)</f>
-        <v>10629.555</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" ref="I39" si="10">AVERAGE(I32:I36)</f>
-        <v>69.890517200000005</v>
-      </c>
-      <c r="J39" s="7">
-        <f t="shared" ref="J39:J40" si="11">I39/H39</f>
-        <v>6.5751122412932624E-3</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" ref="M39:N39" si="12">AVERAGE(M32:M36)</f>
-        <v>133.93099999999998</v>
-      </c>
-      <c r="N39" s="8">
+      <c r="N40" s="8">
         <f t="shared" si="12"/>
         <v>178.59186019999999</v>
       </c>
-      <c r="O39" s="7">
-        <f t="shared" ref="O39:O40" si="13">N39/M39</f>
+      <c r="O40" s="7">
+        <f t="shared" ref="O40:O41" si="13">N40/M40</f>
         <v>1.3334617093876697</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R39" s="14">
-        <f>_xlfn.STDEV.P(R32:R34)</f>
-        <v>4955.590926478847</v>
-      </c>
-      <c r="S39" s="14">
-        <f>_xlfn.STDEV.P(S32:S34)</f>
+      <c r="R40" s="14">
+        <f>_xlfn.STDEV.P(R33:R35)</f>
+        <v>34.521994592948367</v>
+      </c>
+      <c r="S40" s="14">
+        <f>_xlfn.STDEV.P(S33:S35)</f>
         <v>44.379265113457421</v>
       </c>
-      <c r="T39" s="15" t="s">
+      <c r="T40" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
+    <row r="41" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="8">
-        <f>MEDIAN(C32:C36)</f>
+      <c r="C41" s="8">
+        <f>MEDIAN(C33:C37)</f>
         <v>101.74299999999999</v>
       </c>
-      <c r="D40" s="8">
-        <f>MEDIAN(D32:D36)</f>
+      <c r="D41" s="8">
+        <f>MEDIAN(D33:D37)</f>
         <v>133.066329</v>
       </c>
-      <c r="E40" s="7">
-        <f>D40/C40</f>
+      <c r="E41" s="7">
+        <f>D41/C41</f>
         <v>1.30786716530867</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="8">
-        <f t="shared" ref="H40:I40" si="14">MEDIAN(H32:H36)</f>
-        <v>55.305</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="H41" s="8">
+        <f t="shared" ref="H41:I41" si="14">MEDIAN(H33:H37)</f>
+        <v>52.951000000000001</v>
+      </c>
+      <c r="I41" s="8">
         <f t="shared" si="14"/>
         <v>70.126869999999997</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J41" s="7">
         <f t="shared" si="11"/>
-        <v>1.2680023506012115</v>
-      </c>
-      <c r="L40" s="12" t="s">
+        <v>1.3243729108043285</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M40" s="8">
-        <f t="shared" ref="M40:N40" si="15">MEDIAN(M32:M36)</f>
+      <c r="M41" s="8">
+        <f t="shared" ref="M41:N41" si="15">MEDIAN(M33:M37)</f>
         <v>134.84899999999999</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N41" s="8">
         <f t="shared" si="15"/>
         <v>188.336545</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O41" s="7">
         <f t="shared" si="13"/>
         <v>1.3966476948290312</v>
       </c>
     </row>
-    <row r="41" spans="2:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13" t="s">
+    <row r="42" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="14">
-        <f>_xlfn.STDEV.P(C32:C36)</f>
+      <c r="C42" s="14">
+        <f>_xlfn.STDEV.P(C33:C37)</f>
         <v>3.3368005873890634</v>
       </c>
-      <c r="D41" s="14">
-        <f>_xlfn.STDEV.P(D32:D36)</f>
+      <c r="D42" s="14">
+        <f>_xlfn.STDEV.P(D33:D37)</f>
         <v>26.656450927870459</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="14">
-        <f t="shared" ref="H41" si="16">_xlfn.STDEV.P(H32:H36)</f>
-        <v>21160.723921684144</v>
-      </c>
-      <c r="I41" s="14">
-        <f>_xlfn.STDEV.P(I32:I36)</f>
+      <c r="H42" s="14">
+        <f t="shared" ref="H42" si="16">_xlfn.STDEV.P(H33:H37)</f>
+        <v>7.9010402960622743</v>
+      </c>
+      <c r="I42" s="14">
+        <f>_xlfn.STDEV.P(I33:I37)</f>
         <v>13.964897424575572</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="14">
-        <f t="shared" ref="M41:N41" si="17">_xlfn.STDEV.P(M32:M36)</f>
+      <c r="M42" s="14">
+        <f t="shared" ref="M42:N42" si="17">_xlfn.STDEV.P(M33:M37)</f>
         <v>1.5095763644148585</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N42" s="14">
         <f t="shared" si="17"/>
         <v>19.344329971087195</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="O42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B29:T30"/>
+    <mergeCell ref="B2:T3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC02D3A-DF4E-47DA-B37B-6C896801129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861A01F-E6DC-45D1-BE0C-B247E7F1213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,19 +466,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>102.97</c:v>
+                  <c:v>101.74299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.68</c:v>
+                  <c:v>94.453999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.717</c:v>
+                  <c:v>103.21599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.81399999999999</c:v>
+                  <c:v>99.418000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.205</c:v>
+                  <c:v>103.505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,19 +490,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>107.099188</c:v>
+                  <c:v>133.066329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.198443999999995</c:v>
+                  <c:v>89.647870999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.24098000000001</c:v>
+                  <c:v>158.199432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.27462</c:v>
+                  <c:v>146.145983</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.627950999999996</c:v>
+                  <c:v>98.755549000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,19 +918,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.329000000000001</c:v>
+                  <c:v>59.753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.984000000000002</c:v>
+                  <c:v>38.305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.356000000000002</c:v>
+                  <c:v>55.305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.929000000000002</c:v>
+                  <c:v>43.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.134999999999998</c:v>
+                  <c:v>52951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,19 +942,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>82.498931999999996</c:v>
+                  <c:v>71.509658000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.610183999999997</c:v>
+                  <c:v>67.098872999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.400556999999999</c:v>
+                  <c:v>48.402011999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.813851999999997</c:v>
+                  <c:v>70.126869999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.86251</c:v>
+                  <c:v>92.315173000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,19 +1375,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>138.566</c:v>
+                  <c:v>135.14699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.81700000000001</c:v>
+                  <c:v>134.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.88499999999999</c:v>
+                  <c:v>131.483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.6</c:v>
+                  <c:v>135.31899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.89099999999999</c:v>
+                  <c:v>132.857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,19 +1399,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>192.95286899999999</c:v>
+                  <c:v>190.88302899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205.80058399999999</c:v>
+                  <c:v>153.69038399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.97241500000001</c:v>
+                  <c:v>188.336545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.84999300000001</c:v>
+                  <c:v>157.655112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.17600100000001</c:v>
+                  <c:v>202.39423099999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,13 +1832,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>138.95179999999999</c:v>
+                  <c:v>133.93099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.946600000000004</c:v>
+                  <c:v>10629.555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.67720000000001</c:v>
+                  <c:v>100.46720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,13 +1850,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>180.15037240000001</c:v>
+                  <c:v>178.59186019999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.237206999999998</c:v>
+                  <c:v>69.890517200000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>114.88823659999998</c:v>
+                  <c:v>125.1630328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,19 +2272,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>101.74299999999999</c:v>
+                  <c:v>102.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.453999999999994</c:v>
+                  <c:v>101.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.21599999999999</c:v>
+                  <c:v>106.717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.418000000000006</c:v>
+                  <c:v>103.81399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.505</c:v>
+                  <c:v>103.205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,19 +2296,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>133.066329</c:v>
+                  <c:v>107.099188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.647870999999995</c:v>
+                  <c:v>79.198443999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.199432</c:v>
+                  <c:v>150.24098000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.145983</c:v>
+                  <c:v>146.27462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.755549000000002</c:v>
+                  <c:v>91.627950999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,19 +2724,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>59.753</c:v>
+                  <c:v>40.329000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.305</c:v>
+                  <c:v>39.984000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.305</c:v>
+                  <c:v>40.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.411999999999999</c:v>
+                  <c:v>39.929000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52951</c:v>
+                  <c:v>39.134999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2748,19 +2748,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>71.509658000000002</c:v>
+                  <c:v>82.498931999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.098872999999998</c:v>
+                  <c:v>41.610183999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.402011999999999</c:v>
+                  <c:v>35.400556999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.126869999999997</c:v>
+                  <c:v>35.813851999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.315173000000001</c:v>
+                  <c:v>75.86251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,19 +3181,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>135.14699999999999</c:v>
+                  <c:v>138.566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.84899999999999</c:v>
+                  <c:v>138.81700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.483</c:v>
+                  <c:v>139.88499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.31899999999999</c:v>
+                  <c:v>139.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.857</c:v>
+                  <c:v>137.89099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,19 +3205,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>190.88302899999999</c:v>
+                  <c:v>192.95286899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.69038399999999</c:v>
+                  <c:v>205.80058399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.336545</c:v>
+                  <c:v>199.97241500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.655112</c:v>
+                  <c:v>150.84999300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.39423099999999</c:v>
+                  <c:v>151.17600100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,13 +3638,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.93099999999998</c:v>
+                  <c:v>138.95179999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10629.555</c:v>
+                  <c:v>39.946600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.46720000000001</c:v>
+                  <c:v>103.67720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,13 +3656,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>178.59186019999999</c:v>
+                  <c:v>180.15037240000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.890517200000005</c:v>
+                  <c:v>54.237206999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.1630328</c:v>
+                  <c:v>114.88823659999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8741,6 +8741,141 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
+            <v>101.74299999999999</v>
+          </cell>
+          <cell r="D5">
+            <v>133.066329</v>
+          </cell>
+          <cell r="H5">
+            <v>59.753</v>
+          </cell>
+          <cell r="I5">
+            <v>71.509658000000002</v>
+          </cell>
+          <cell r="M5">
+            <v>135.14699999999999</v>
+          </cell>
+          <cell r="N5">
+            <v>190.88302899999999</v>
+          </cell>
+          <cell r="R5">
+            <v>133.93099999999998</v>
+          </cell>
+          <cell r="S5">
+            <v>178.59186019999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>94.453999999999994</v>
+          </cell>
+          <cell r="D6">
+            <v>89.647870999999995</v>
+          </cell>
+          <cell r="H6">
+            <v>38.305</v>
+          </cell>
+          <cell r="I6">
+            <v>67.098872999999998</v>
+          </cell>
+          <cell r="M6">
+            <v>134.84899999999999</v>
+          </cell>
+          <cell r="N6">
+            <v>153.69038399999999</v>
+          </cell>
+          <cell r="R6">
+            <v>10629.555</v>
+          </cell>
+          <cell r="S6">
+            <v>69.890517200000005</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>103.21599999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>158.199432</v>
+          </cell>
+          <cell r="H7">
+            <v>55.305</v>
+          </cell>
+          <cell r="I7">
+            <v>48.402011999999999</v>
+          </cell>
+          <cell r="M7">
+            <v>131.483</v>
+          </cell>
+          <cell r="N7">
+            <v>188.336545</v>
+          </cell>
+          <cell r="R7">
+            <v>100.46720000000001</v>
+          </cell>
+          <cell r="S7">
+            <v>125.1630328</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>99.418000000000006</v>
+          </cell>
+          <cell r="D8">
+            <v>146.145983</v>
+          </cell>
+          <cell r="H8">
+            <v>43.411999999999999</v>
+          </cell>
+          <cell r="I8">
+            <v>70.126869999999997</v>
+          </cell>
+          <cell r="M8">
+            <v>135.31899999999999</v>
+          </cell>
+          <cell r="N8">
+            <v>157.655112</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>103.505</v>
+          </cell>
+          <cell r="D9">
+            <v>98.755549000000002</v>
+          </cell>
+          <cell r="H9">
+            <v>52951</v>
+          </cell>
+          <cell r="I9">
+            <v>92.315173000000001</v>
+          </cell>
+          <cell r="M9">
+            <v>132.857</v>
+          </cell>
+          <cell r="N9">
+            <v>202.39423099999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Risultati App non ottimizzata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
             <v>102.97</v>
           </cell>
           <cell r="D5">
@@ -8855,141 +8990,6 @@
           </cell>
           <cell r="N9">
             <v>151.17600100000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Risultati App non ottimizzata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="C5">
-            <v>101.74299999999999</v>
-          </cell>
-          <cell r="D5">
-            <v>133.066329</v>
-          </cell>
-          <cell r="H5">
-            <v>59.753</v>
-          </cell>
-          <cell r="I5">
-            <v>71.509658000000002</v>
-          </cell>
-          <cell r="M5">
-            <v>135.14699999999999</v>
-          </cell>
-          <cell r="N5">
-            <v>190.88302899999999</v>
-          </cell>
-          <cell r="R5">
-            <v>133.93099999999998</v>
-          </cell>
-          <cell r="S5">
-            <v>178.59186019999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>94.453999999999994</v>
-          </cell>
-          <cell r="D6">
-            <v>89.647870999999995</v>
-          </cell>
-          <cell r="H6">
-            <v>38.305</v>
-          </cell>
-          <cell r="I6">
-            <v>67.098872999999998</v>
-          </cell>
-          <cell r="M6">
-            <v>134.84899999999999</v>
-          </cell>
-          <cell r="N6">
-            <v>153.69038399999999</v>
-          </cell>
-          <cell r="R6">
-            <v>10629.555</v>
-          </cell>
-          <cell r="S6">
-            <v>69.890517200000005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>103.21599999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>158.199432</v>
-          </cell>
-          <cell r="H7">
-            <v>55.305</v>
-          </cell>
-          <cell r="I7">
-            <v>48.402011999999999</v>
-          </cell>
-          <cell r="M7">
-            <v>131.483</v>
-          </cell>
-          <cell r="N7">
-            <v>188.336545</v>
-          </cell>
-          <cell r="R7">
-            <v>100.46720000000001</v>
-          </cell>
-          <cell r="S7">
-            <v>125.1630328</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>99.418000000000006</v>
-          </cell>
-          <cell r="D8">
-            <v>146.145983</v>
-          </cell>
-          <cell r="H8">
-            <v>43.411999999999999</v>
-          </cell>
-          <cell r="I8">
-            <v>70.126869999999997</v>
-          </cell>
-          <cell r="M8">
-            <v>135.31899999999999</v>
-          </cell>
-          <cell r="N8">
-            <v>157.655112</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>103.505</v>
-          </cell>
-          <cell r="D9">
-            <v>98.755549000000002</v>
-          </cell>
-          <cell r="H9">
-            <v>52951</v>
-          </cell>
-          <cell r="I9">
-            <v>92.315173000000001</v>
-          </cell>
-          <cell r="M9">
-            <v>132.857</v>
-          </cell>
-          <cell r="N9">
-            <v>202.39423099999999</v>
           </cell>
         </row>
       </sheetData>
@@ -9264,7 +9264,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="B2" sqref="B2:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861A01F-E6DC-45D1-BE0C-B247E7F1213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658E179F-EB8A-4751-BBA8-2D9F0D8B5E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,8 +393,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Scenario5</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>App Ottimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -461,48 +468,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$C$5:$C$9</c:f>
+              <c:f>optVSnopt!$R$6:$R$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101.74299999999999</c:v>
+                  <c:v>138.95179999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.453999999999994</c:v>
+                  <c:v>39.946600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.21599999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.418000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>103.505</c:v>
+                  <c:v>103.67720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$D$5:$D$9</c:f>
+              <c:f>optVSnopt!$S$6:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.066329</c:v>
+                  <c:v>180.15037240000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.647870999999995</c:v>
+                  <c:v>54.237206999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.199432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>146.145983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.755549000000002</c:v>
+                  <c:v>114.88823659999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-447A-469B-A7DB-2C82B1C09646}"/>
+              <c16:uniqueId val="{00000000-D5E5-4131-8787-4045360D5314}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -522,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1902193055"/>
-        <c:axId val="1893190431"/>
+        <c:axId val="322954896"/>
+        <c:axId val="326436336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1902193055"/>
+        <c:axId val="322954896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,62 +541,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration (S)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -638,12 +578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893190431"/>
+        <c:crossAx val="326436336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1893190431"/>
+        <c:axId val="326436336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,62 +603,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -755,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902193055"/>
+        <c:crossAx val="322954896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -845,8 +730,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Scenario3</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>App NonOttimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -913,48 +805,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$H$5:$H$9</c:f>
+              <c:f>optVSnopt!$R$33:$R$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>59.753</c:v>
+                  <c:v>133.93099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.305</c:v>
+                  <c:v>49.9452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52951</c:v>
+                  <c:v>100.46720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$I$5:$I$9</c:f>
+              <c:f>optVSnopt!$S$33:$S$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>71.509658000000002</c:v>
+                  <c:v>178.59186019999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.098872999999998</c:v>
+                  <c:v>69.890517200000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.402011999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.126869999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92.315173000000001</c:v>
+                  <c:v>125.1630328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +842,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41CD-4403-9A4E-B47302FD18FC}"/>
+              <c16:uniqueId val="{00000000-BDED-4F10-BDF2-3D2DBA18B519}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -974,11 +854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1836171807"/>
-        <c:axId val="2058411871"/>
+        <c:axId val="295556336"/>
+        <c:axId val="326425920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1836171807"/>
+        <c:axId val="295556336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,67 +878,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1095,12 +915,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058411871"/>
+        <c:crossAx val="326425920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058411871"/>
+        <c:axId val="326425920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,62 +940,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1212,7 +977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836171807"/>
+        <c:crossAx val="295556336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1302,8 +1067,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Scenario2</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario3 NonOttimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1370,48 +1142,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$M$5:$M$9</c:f>
+              <c:f>optVSnopt!$H$33:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>135.14699999999999</c:v>
+                  <c:v>59.753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.84899999999999</c:v>
+                  <c:v>38.305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.483</c:v>
+                  <c:v>55.305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.31899999999999</c:v>
+                  <c:v>43.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.857</c:v>
+                  <c:v>52.951000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$N$5:$N$9</c:f>
+              <c:f>optVSnopt!$I$33:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>190.88302899999999</c:v>
+                  <c:v>71.509658000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.69038399999999</c:v>
+                  <c:v>67.098872999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.336545</c:v>
+                  <c:v>48.402011999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.655112</c:v>
+                  <c:v>70.126869999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.39423099999999</c:v>
+                  <c:v>92.315173000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C78-4148-88BA-A1920243F606}"/>
+              <c16:uniqueId val="{00000000-E150-448C-B8DB-0946E95ADD95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1431,11 +1203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2067421727"/>
-        <c:axId val="2058406415"/>
+        <c:axId val="356817920"/>
+        <c:axId val="326425424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2067421727"/>
+        <c:axId val="356817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,66 +1227,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1552,12 +1264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058406415"/>
+        <c:crossAx val="326425424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058406415"/>
+        <c:axId val="326425424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,61 +1289,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1669,7 +1326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067421727"/>
+        <c:crossAx val="356817920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,7 +1417,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Test App</a:t>
+              <a:t>Scenario5 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Non</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Ottimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1827,36 +1499,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$R$5:$R$7</c:f>
+              <c:f>optVSnopt!$C$33:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>133.93099999999998</c:v>
+                  <c:v>101.74299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10629.555</c:v>
+                  <c:v>94.453999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.46720000000001</c:v>
+                  <c:v>103.21599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.418000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Risultati App non ottimizzata'!$S$5:$S$7</c:f>
+              <c:f>optVSnopt!$D$33:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>178.59186019999999</c:v>
+                  <c:v>133.066329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.890517200000005</c:v>
+                  <c:v>89.647870999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.1630328</c:v>
+                  <c:v>158.199432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.145983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.755549000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8700-4B66-9AA9-E6DF95D758BA}"/>
+              <c16:uniqueId val="{00000000-7277-479A-A5D4-662E4ED52DB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1876,11 +1560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1836169887"/>
-        <c:axId val="2058383599"/>
+        <c:axId val="323024960"/>
+        <c:axId val="326431376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1836169887"/>
+        <c:axId val="323024960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,61 +1584,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration (S)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1992,12 +1621,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058383599"/>
+        <c:crossAx val="326431376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058383599"/>
+        <c:axId val="326431376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,61 +1646,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2109,7 +1683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836169887"/>
+        <c:crossAx val="323024960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2199,8 +1773,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Scenario5</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario2 NonOttimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2267,48 +1848,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$C$5:$C$9</c:f>
+              <c:f>optVSnopt!$M$33:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>102.97</c:v>
+                  <c:v>135.14699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.68</c:v>
+                  <c:v>134.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.717</c:v>
+                  <c:v>131.483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.81399999999999</c:v>
+                  <c:v>135.31899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.205</c:v>
+                  <c:v>132.857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$D$5:$D$9</c:f>
+              <c:f>optVSnopt!$N$33:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>107.099188</c:v>
+                  <c:v>190.88302899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.198443999999995</c:v>
+                  <c:v>153.69038399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.24098000000001</c:v>
+                  <c:v>188.336545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.27462</c:v>
+                  <c:v>157.655112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.627950999999996</c:v>
+                  <c:v>202.39423099999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +1897,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E19-4A30-A934-06EC1536BA2A}"/>
+              <c16:uniqueId val="{00000000-EE88-43D8-9E94-E0154C7A8A91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2328,11 +1909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1902193055"/>
-        <c:axId val="1893190431"/>
+        <c:axId val="293476416"/>
+        <c:axId val="328385328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1902193055"/>
+        <c:axId val="293476416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,61 +1933,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration (S)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2444,12 +1970,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893190431"/>
+        <c:crossAx val="328385328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1893190431"/>
+        <c:axId val="328385328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,61 +1995,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2561,7 +2032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902193055"/>
+        <c:crossAx val="293476416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2651,8 +2122,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Scenario3</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario5 Ottimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2719,48 +2197,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$H$5:$H$9</c:f>
+              <c:f>optVSnopt!$C$6:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.329000000000001</c:v>
+                  <c:v>102.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.984000000000002</c:v>
+                  <c:v>101.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.356000000000002</c:v>
+                  <c:v>106.717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.929000000000002</c:v>
+                  <c:v>103.81399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.134999999999998</c:v>
+                  <c:v>103.205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$I$5:$I$9</c:f>
+              <c:f>optVSnopt!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>82.498931999999996</c:v>
+                  <c:v>107.099188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.610183999999997</c:v>
+                  <c:v>79.198443999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.400556999999999</c:v>
+                  <c:v>150.24098000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.813851999999997</c:v>
+                  <c:v>146.27462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.86251</c:v>
+                  <c:v>91.627950999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2246,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05D2-4B91-9734-2D46A0B1ACFD}"/>
+              <c16:uniqueId val="{00000000-9CDE-456C-8FA4-68E6049E83C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2780,11 +2258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1836171807"/>
-        <c:axId val="2058411871"/>
+        <c:axId val="330422896"/>
+        <c:axId val="175562928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1836171807"/>
+        <c:axId val="330422896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,66 +2282,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2901,12 +2319,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058411871"/>
+        <c:crossAx val="175562928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058411871"/>
+        <c:axId val="175562928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,61 +2344,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3018,7 +2381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836171807"/>
+        <c:crossAx val="330422896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3108,8 +2471,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Scenario2</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario3 Ottimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3176,48 +2546,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$M$5:$M$9</c:f>
+              <c:f>optVSnopt!$H$6:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>138.566</c:v>
+                  <c:v>40.329000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.81700000000001</c:v>
+                  <c:v>39.984000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.88499999999999</c:v>
+                  <c:v>40.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.6</c:v>
+                  <c:v>39.929000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.89099999999999</c:v>
+                  <c:v>39.134999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$N$5:$N$9</c:f>
+              <c:f>optVSnopt!$I$6:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>192.95286899999999</c:v>
+                  <c:v>82.498931999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205.80058399999999</c:v>
+                  <c:v>41.610183999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199.97241500000001</c:v>
+                  <c:v>35.400556999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.84999300000001</c:v>
+                  <c:v>35.813851999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.17600100000001</c:v>
+                  <c:v>75.86251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,7 +2595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B51-459E-AC49-AA92423244F4}"/>
+              <c16:uniqueId val="{00000000-701A-41CD-A324-FCD6B5A78DC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3237,11 +2607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2067421727"/>
-        <c:axId val="2058406415"/>
+        <c:axId val="359933712"/>
+        <c:axId val="286804512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2067421727"/>
+        <c:axId val="359933712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,66 +2631,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (S)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3358,12 +2668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058406415"/>
+        <c:crossAx val="286804512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058406415"/>
+        <c:axId val="286804512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,61 +2693,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3475,7 +2730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067421727"/>
+        <c:crossAx val="359933712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3565,8 +2820,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Test App</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario2 Ottimizzata</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3633,36 +2895,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$R$5:$R$7</c:f>
+              <c:f>optVSnopt!$M$6:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>138.95179999999999</c:v>
+                  <c:v>138.566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.946600000000004</c:v>
+                  <c:v>138.81700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.67720000000001</c:v>
+                  <c:v>139.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.89099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Risultati App non ottimizzata'!$S$5:$S$7</c:f>
+              <c:f>optVSnopt!$N$6:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>180.15037240000001</c:v>
+                  <c:v>192.95286899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.237206999999998</c:v>
+                  <c:v>205.80058399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>114.88823659999998</c:v>
+                  <c:v>199.97241500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.84999300000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.17600100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,7 +2944,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B09-472F-A03F-B636948D9A28}"/>
+              <c16:uniqueId val="{00000000-377F-422B-8C44-579B90B56144}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3682,11 +2956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1836169887"/>
-        <c:axId val="2058383599"/>
+        <c:axId val="295925072"/>
+        <c:axId val="328401696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1836169887"/>
+        <c:axId val="295925072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,61 +2980,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duration (S)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3798,12 +3017,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058383599"/>
+        <c:crossAx val="328401696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2058383599"/>
+        <c:axId val="328401696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,61 +3042,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Energy (J)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3915,7 +3079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1836169887"/>
+        <c:crossAx val="295925072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8423,29 +7587,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22523</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>354106</xdr:rowOff>
+      <xdr:rowOff>308882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18602</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160291</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>116749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="21" name="Chart 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7CB18E-CCD1-4E57-9CAA-CAA0B167BF49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CF8094-588D-01DF-D43A-9F8C206C54C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8461,29 +7623,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12439</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1039040</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1088877</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>347383</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>43541</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>145866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="22" name="Chart 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0CA2FC-E3E8-4EAF-BAC8-A9A15CD562A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D164E3-BC57-74BC-917A-B5B3291DCA23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8499,29 +7659,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57422</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173899</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>157569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="23" name="Chart 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91902702-2435-4B43-AB0B-7F4DB9E0FEB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432F6C8E-44FF-8BF9-5813-141D15702A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8537,29 +7695,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1092462</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10533</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>547279</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>36739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>46729</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>347383</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37828</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171177</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="24" name="Chart 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4616A94F-C9C3-4C02-9397-9DDC3D02F1FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80692965-FD94-76F1-0E8D-B391EB4621EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8575,29 +7731,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22523</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>354106</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601707</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18602</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>92256</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>157570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="25" name="Chart 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD0DFEA-E0A1-4033-856E-1FD77C3940BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADFAD49-D452-1F9C-0923-7AA4A347CC3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8613,29 +7767,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12439</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>615315</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1088877</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>347383</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105864</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171177</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="26" name="Chart 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF42CF99-F5D8-42DC-B87D-61E748BF300A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581908D-ECC8-E722-6402-6D103E79B277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8651,29 +7803,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2993</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119470</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="27" name="Chart 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CBFC15-6C79-412D-A594-B9CC57AEFC0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C736A2D0-D864-5870-6C16-B2DCCD5C0029}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8689,29 +7839,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1092462</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>10533</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71030</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>46729</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>347383</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187507</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103141</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="28" name="Chart 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6C9EC-D657-4779-B879-84A0D9C1E049}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FB9921-815D-FBEE-CFD6-0EFD042892B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9264,7 +8412,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T3"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8075BD4-3C2F-409F-9F8C-E0E3C9BAB178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D6309C-92B6-44CD-9590-5993EC474015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,59 +417,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,16 +453,46 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,7 +1806,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenario5 ParzOtt1</a:t>
+              <a:t>Scenario2 ParzOtt1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14424,8 +14415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U64" sqref="U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14441,643 +14432,473 @@
   <sheetData>
     <row r="1" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
     </row>
     <row r="4" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="37"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="24"/>
     </row>
     <row r="6" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="32">
-        <f>R27</f>
+      <c r="C6" s="15">
+        <f t="shared" ref="C6:D8" si="0">R27</f>
         <v>133.93099999999998</v>
       </c>
-      <c r="D6" s="32">
-        <f>S27</f>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
         <v>178.59186019999999</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="34" t="s">
+      <c r="E6" s="21"/>
+      <c r="L6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="15">
         <f>AVERAGE(C6:C8)</f>
         <v>94.781133333333329</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="15">
         <f>AVERAGE(D6:D8)</f>
         <v>124.54847006666667</v>
       </c>
-      <c r="O6" s="28">
-        <f t="shared" ref="O6:O7" si="0">N6/M6</f>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O7" si="1">N6/M6</f>
         <v>1.3140639459189136</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="37"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="32">
-        <f>R28</f>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
         <v>49.9452</v>
       </c>
-      <c r="D7" s="32">
-        <f>S28</f>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
         <v>69.890517200000005</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="34" t="s">
+      <c r="E7" s="20"/>
+      <c r="L7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="15">
         <f>MEDIAN(C6:C8)</f>
         <v>100.46720000000001</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="15">
         <f>MEDIAN(D6:D8)</f>
         <v>125.1630328</v>
       </c>
-      <c r="O7" s="28">
-        <f t="shared" si="0"/>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
         <v>1.2458099041279143</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="37"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="32">
-        <f>R29</f>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
         <v>100.46720000000001</v>
       </c>
-      <c r="D8" s="32">
-        <f>S29</f>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
         <v>125.1630328</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="34" t="s">
+      <c r="E8" s="20"/>
+      <c r="L8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="2">
         <f>_xlfn.STDEV.P(C6:C8)</f>
         <v>34.521994592948367</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="2">
         <f>_xlfn.STDEV.P(D6:D8)</f>
         <v>44.379265113457421</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="37"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="2">
         <v>136.6378</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="2">
         <v>161.58733359999997</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="44" t="s">
+      <c r="E9" s="21"/>
+      <c r="L9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="28"/>
+      <c r="R9" s="20"/>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="2">
         <v>55.073400000000007</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="2">
         <v>62.772140799999988</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="34" t="s">
+      <c r="E10" s="20"/>
+      <c r="L10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="15">
         <f>AVERAGE(C9:C11)</f>
         <v>97.697666666666677</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="15">
         <f>AVERAGE(D9:D11)</f>
         <v>112.05304713333332</v>
       </c>
-      <c r="O10" s="28">
-        <f t="shared" ref="O10:O11" si="1">N10/M10</f>
+      <c r="O10" s="2">
+        <f t="shared" ref="O10:O11" si="2">N10/M10</f>
         <v>1.146936779111067</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="28"/>
+      <c r="R10" s="20"/>
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="2">
         <v>101.3818</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="2">
         <v>111.799667</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="34" t="s">
+      <c r="E11" s="20"/>
+      <c r="L11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="15">
         <f>MEDIAN(C9:C11)</f>
         <v>101.3818</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="15">
         <f>MEDIAN(D9:D11)</f>
         <v>111.799667</v>
       </c>
-      <c r="O11" s="28">
-        <f t="shared" si="1"/>
+      <c r="O11" s="2">
+        <f t="shared" si="2"/>
         <v>1.1027587495980542</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="28"/>
+      <c r="R11" s="43"/>
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="2">
         <f>_xlfn.STDEV.P(C9:C11)</f>
         <v>33.400274107191898</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="2">
         <f>_xlfn.STDEV.P(D9:D11)</f>
         <v>40.341531396682413</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="28"/>
+      <c r="R12" s="43"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="28"/>
+      <c r="R13" s="43"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="32" t="e">
+      <c r="M14" s="15" t="e">
         <f>AVERAGE(C12:C14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="32" t="e">
+      <c r="N14" s="15" t="e">
         <f>AVERAGE(D12:D14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="28" t="e">
-        <f t="shared" ref="O14:O15" si="2">N14/M14</f>
+      <c r="O14" s="2" t="e">
+        <f t="shared" ref="O14:O15" si="3">N14/M14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="32">
-        <f>R105</f>
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:D17" si="4">R105</f>
         <v>138.95179999999999</v>
       </c>
-      <c r="D15" s="32">
-        <f>S105</f>
+      <c r="D15" s="15">
+        <f t="shared" si="4"/>
         <v>180.15037240000001</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="32" t="e">
+      <c r="M15" s="15" t="e">
         <f>MEDIAN(C12:C14)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N15" s="32" t="e">
+      <c r="N15" s="15" t="e">
         <f>MEDIAN(D12:D14)</f>
         <v>#NUM!</v>
       </c>
-      <c r="O15" s="28" t="e">
-        <f t="shared" si="2"/>
+      <c r="O15" s="2" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="32">
-        <f>R106</f>
+      <c r="C16" s="15">
+        <f t="shared" si="4"/>
         <v>39.946600000000004</v>
       </c>
-      <c r="D16" s="32">
-        <f>S106</f>
+      <c r="D16" s="15">
+        <f t="shared" si="4"/>
         <v>54.237206999999998</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="28" t="e">
+      <c r="M16" s="2" t="e">
         <f>_xlfn.STDEV.P(C12:C14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="28" t="e">
+      <c r="N16" s="2" t="e">
         <f>_xlfn.STDEV.P(D12:D14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="32">
-        <f>R107</f>
+      <c r="C17" s="15">
+        <f t="shared" si="4"/>
         <v>103.67720000000001</v>
       </c>
-      <c r="D17" s="32">
-        <f>S107</f>
+      <c r="D17" s="15">
+        <f t="shared" si="4"/>
         <v>114.88823659999998</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="15">
         <f>AVERAGE(C15:C17)</f>
         <v>94.19186666666667</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="15">
         <f>AVERAGE(D15:D17)</f>
         <v>116.42527199999999</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="2">
         <f>N18/M18</f>
         <v>1.236043791466779</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="15">
         <f>MEDIAN(C15:C17)</f>
         <v>103.67720000000001</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="15">
         <f>MEDIAN(D15:D17)</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="2">
         <f>N19/M19</f>
         <v>1.1081340603334191</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="34" t="s">
+      <c r="L20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="2">
         <f>_xlfn.STDEV.P(C15:C17)</f>
         <v>40.971421487774741</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="2">
         <f>_xlfn.STDEV.P(D15:D17)</f>
         <v>51.415323031353083</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -15098,72 +14919,55 @@
       <c r="S21" s="12"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="20"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23"/>
+    <row r="24" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -15174,7 +14978,7 @@
       <c r="K25" s="1"/>
       <c r="T25" s="7"/>
     </row>
-    <row r="26" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
@@ -15216,7 +15020,7 @@
       </c>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
@@ -15260,7 +15064,7 @@
       </c>
       <c r="T27" s="7"/>
     </row>
-    <row r="28" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
@@ -15304,8 +15108,7 @@
       </c>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+    <row r="29" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
@@ -15349,7 +15152,7 @@
       </c>
       <c r="T29" s="7"/>
     </row>
-    <row r="30" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
@@ -15383,7 +15186,7 @@
       <c r="Q30" s="8"/>
       <c r="T30" s="7"/>
     </row>
-    <row r="31" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
@@ -15425,7 +15228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="E32" s="7"/>
       <c r="G32" s="8"/>
@@ -15444,7 +15247,7 @@
         <v>124.54847006666667</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" ref="T32:T33" si="3">S32/R32</f>
+        <f t="shared" ref="T32:T33" si="5">S32/R32</f>
         <v>1.3140639459189136</v>
       </c>
     </row>
@@ -15491,7 +15294,7 @@
         <v>125.1630328</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2458099041279143</v>
       </c>
     </row>
@@ -15519,26 +15322,26 @@
         <v>49.9452</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ref="I34" si="4">AVERAGE(I27:I31)</f>
+        <f t="shared" ref="I34" si="6">AVERAGE(I27:I31)</f>
         <v>69.890517200000005</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" ref="J34:J35" si="5">I34/H34</f>
+        <f t="shared" ref="J34:J35" si="7">I34/H34</f>
         <v>1.3993440250514566</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" ref="M34:N34" si="6">AVERAGE(M27:M31)</f>
+        <f t="shared" ref="M34:N34" si="8">AVERAGE(M27:M31)</f>
         <v>133.93099999999998</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>178.59186019999999</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" ref="O34:O35" si="7">N34/M34</f>
+        <f t="shared" ref="O34:O35" si="9">N34/M34</f>
         <v>1.3334617093876697</v>
       </c>
       <c r="Q34" s="11" t="s">
@@ -15576,30 +15379,30 @@
         <v>18</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" ref="H35:I35" si="8">MEDIAN(H27:H31)</f>
+        <f t="shared" ref="H35:I35" si="10">MEDIAN(H27:H31)</f>
         <v>52.951000000000001</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70.126869999999997</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3243729108043285</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" ref="M35:N35" si="9">MEDIAN(M27:M31)</f>
+        <f t="shared" ref="M35:N35" si="11">MEDIAN(M27:M31)</f>
         <v>134.84899999999999</v>
       </c>
       <c r="N35" s="15">
+        <f t="shared" si="11"/>
+        <v>188.336545</v>
+      </c>
+      <c r="O35" s="7">
         <f t="shared" si="9"/>
-        <v>188.336545</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" si="7"/>
         <v>1.3966476948290312</v>
       </c>
       <c r="T35" s="7"/>
@@ -15623,7 +15426,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" ref="H36" si="10">_xlfn.STDEV.P(H27:H31)</f>
+        <f t="shared" ref="H36" si="12">_xlfn.STDEV.P(H27:H31)</f>
         <v>7.9010402960622743</v>
       </c>
       <c r="I36" s="12">
@@ -15637,11 +15440,11 @@
         <v>19</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" ref="M36:N36" si="11">_xlfn.STDEV.P(M27:M31)</f>
+        <f t="shared" ref="M36:N36" si="13">_xlfn.STDEV.P(M27:M31)</f>
         <v>1.5095763644148585</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.344329971087195</v>
       </c>
       <c r="O36" s="13" t="s">
@@ -15714,48 +15517,48 @@
     </row>
     <row r="48" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="20"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="36"/>
     </row>
     <row r="50" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="23"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="39"/>
     </row>
     <row r="51" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
@@ -15824,20 +15627,20 @@
       <c r="G53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="18">
         <v>58.121000000000002</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="18">
         <v>71.347314000000011</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="18">
         <v>136.57900000000001</v>
       </c>
-      <c r="N53" s="24">
+      <c r="N53" s="18">
         <v>198.98197200000001</v>
       </c>
       <c r="O53" s="7"/>
@@ -15868,20 +15671,20 @@
       <c r="G54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="18">
         <v>55.320999999999998</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="18">
         <v>52.350847999999985</v>
       </c>
       <c r="J54" s="7"/>
       <c r="L54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="24">
+      <c r="M54" s="18">
         <v>137.322</v>
       </c>
-      <c r="N54" s="24">
+      <c r="N54" s="18">
         <v>138.01236800000001</v>
       </c>
       <c r="O54" s="7"/>
@@ -15912,20 +15715,20 @@
       <c r="G55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="18">
         <v>53.064999999999998</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="18">
         <v>99.505318999999957</v>
       </c>
       <c r="J55" s="7"/>
       <c r="L55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M55" s="18">
         <v>136.55600000000001</v>
       </c>
-      <c r="N55" s="24">
+      <c r="N55" s="18">
         <v>154.58476999999993</v>
       </c>
       <c r="O55" s="7"/>
@@ -15956,10 +15759,10 @@
       <c r="G56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="18">
         <v>53.207000000000001</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="18">
         <v>50.783741000000006</v>
       </c>
       <c r="J56" s="7"/>
@@ -15990,10 +15793,10 @@
       <c r="G57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="18">
         <v>55.652999999999999</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="18">
         <v>39.873481999999989</v>
       </c>
       <c r="J57" s="7"/>
@@ -16037,7 +15840,7 @@
         <v>112.05304713333332</v>
       </c>
       <c r="T58" s="7">
-        <f t="shared" ref="T58:T59" si="12">S58/R58</f>
+        <f t="shared" ref="T58:T59" si="14">S58/R58</f>
         <v>1.146936779111067</v>
       </c>
     </row>
@@ -16084,7 +15887,7 @@
         <v>111.799667</v>
       </c>
       <c r="T59" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1027587495980542</v>
       </c>
     </row>
@@ -16101,7 +15904,7 @@
         <v>111.799667</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" ref="E60:E61" si="13">D60/C60</f>
+        <f t="shared" ref="E60:E61" si="15">D60/C60</f>
         <v>1.1027587495980542</v>
       </c>
       <c r="G60" s="10" t="s">
@@ -16112,11 +15915,11 @@
         <v>55.073400000000007</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" ref="I60" si="14">AVERAGE(I53:I57)</f>
+        <f t="shared" ref="I60" si="16">AVERAGE(I53:I57)</f>
         <v>62.772140799999988</v>
       </c>
       <c r="J60" s="7">
-        <f t="shared" ref="J60:J61" si="15">I60/H60</f>
+        <f t="shared" ref="J60:J61" si="17">I60/H60</f>
         <v>1.1397905486133049</v>
       </c>
       <c r="L60" s="10" t="s">
@@ -16131,7 +15934,7 @@
         <v>161.58733359999997</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60:O61" si="16">N60/M60</f>
+        <f t="shared" ref="O60:O61" si="18">N60/M60</f>
         <v>1.1825961307925037</v>
       </c>
       <c r="Q60" s="11" t="s">
@@ -16154,7 +15957,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="15">
-        <f t="shared" ref="C61:D61" si="17">MEDIAN(C53:C57)</f>
+        <f t="shared" ref="C61" si="19">MEDIAN(C53:C57)</f>
         <v>101.38</v>
       </c>
       <c r="D61" s="15">
@@ -16162,29 +15965,29 @@
         <v>100.497659</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.99129669560071021</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" ref="H61:I61" si="18">MEDIAN(H53:H57)</f>
+        <f t="shared" ref="H61:I61" si="20">MEDIAN(H53:H57)</f>
         <v>55.320999999999998</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>52.350847999999985</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.94631058729957862</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="15">
-        <f t="shared" ref="M61:N61" si="19">MEDIAN(M53:M57)</f>
+        <f t="shared" ref="M61" si="21">MEDIAN(M53:M57)</f>
         <v>136.56800000000001</v>
       </c>
       <c r="N61" s="15">
@@ -16192,7 +15995,7 @@
         <v>157.36544600000002</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.15228637748228</v>
       </c>
       <c r="T61" s="7"/>
@@ -16202,7 +16005,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="12">
-        <f t="shared" ref="C62" si="20">_xlfn.STDEV.P(C53:C57)</f>
+        <f t="shared" ref="C62" si="22">_xlfn.STDEV.P(C53:C57)</f>
         <v>2.3928226010297617E-2</v>
       </c>
       <c r="D62" s="12">
@@ -16216,7 +16019,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" ref="H62" si="21">_xlfn.STDEV.P(H53:H57)</f>
+        <f t="shared" ref="H62" si="23">_xlfn.STDEV.P(H53:H57)</f>
         <v>1.8548437777883084</v>
       </c>
       <c r="I62" s="12">
@@ -16230,7 +16033,7 @@
         <v>19</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" ref="M62" si="22">_xlfn.STDEV.P(M53:M57)</f>
+        <f t="shared" ref="M62" si="24">_xlfn.STDEV.P(M53:M57)</f>
         <v>0.37620122275187023</v>
       </c>
       <c r="N62" s="12">
@@ -16305,48 +16108,48 @@
     </row>
     <row r="74" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="20"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="36"/>
     </row>
     <row r="76" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="23"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="39"/>
     </row>
     <row r="77" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
@@ -16684,48 +16487,48 @@
     </row>
     <row r="100" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="101" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="20"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="36"/>
     </row>
     <row r="102" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="21"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="23"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="38"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="39"/>
     </row>
     <row r="103" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
@@ -17007,7 +16810,7 @@
         <v>116.42527199999999</v>
       </c>
       <c r="T110" s="7">
-        <f t="shared" ref="T110:T111" si="23">S110/R110</f>
+        <f t="shared" ref="T110:T111" si="25">S110/R110</f>
         <v>1.236043791466779</v>
       </c>
     </row>
@@ -17054,7 +16857,7 @@
         <v>114.88823659999998</v>
       </c>
       <c r="T111" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.1081340603334191</v>
       </c>
     </row>
@@ -17082,26 +16885,26 @@
         <v>39.946600000000004</v>
       </c>
       <c r="I112" s="15">
-        <f t="shared" ref="I112" si="24">AVERAGE(I105:I109)</f>
+        <f t="shared" ref="I112" si="26">AVERAGE(I105:I109)</f>
         <v>54.237206999999998</v>
       </c>
       <c r="J112" s="7">
-        <f t="shared" ref="J112:J113" si="25">I112/H112</f>
+        <f t="shared" ref="J112:J113" si="27">I112/H112</f>
         <v>1.3577427615867181</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M112" s="15">
-        <f t="shared" ref="M112:N112" si="26">AVERAGE(M105:M109)</f>
+        <f t="shared" ref="M112:N112" si="28">AVERAGE(M105:M109)</f>
         <v>138.95179999999999</v>
       </c>
       <c r="N112" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>180.15037240000001</v>
       </c>
       <c r="O112" s="7">
-        <f t="shared" ref="O112:O113" si="27">N112/M112</f>
+        <f t="shared" ref="O112:O113" si="29">N112/M112</f>
         <v>1.2964954207142334</v>
       </c>
       <c r="Q112" s="11" t="s">
@@ -17139,30 +16942,30 @@
         <v>18</v>
       </c>
       <c r="H113" s="15">
-        <f t="shared" ref="H113:I113" si="28">MEDIAN(H105:H109)</f>
+        <f t="shared" ref="H113:I113" si="30">MEDIAN(H105:H109)</f>
         <v>39.984000000000002</v>
       </c>
       <c r="I113" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>41.610183999999997</v>
       </c>
       <c r="J113" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0406708683473389</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M113" s="15">
-        <f t="shared" ref="M113:N113" si="29">MEDIAN(M105:M109)</f>
+        <f t="shared" ref="M113:N113" si="31">MEDIAN(M105:M109)</f>
         <v>138.81700000000001</v>
       </c>
       <c r="N113" s="15">
+        <f t="shared" si="31"/>
+        <v>192.95286899999999</v>
+      </c>
+      <c r="O113" s="7">
         <f t="shared" si="29"/>
-        <v>192.95286899999999</v>
-      </c>
-      <c r="O113" s="7">
-        <f t="shared" si="27"/>
         <v>1.3899801105051974</v>
       </c>
       <c r="T113" s="7"/>
@@ -17186,7 +16989,7 @@
         <v>19</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" ref="H114" si="30">_xlfn.STDEV.P(H105:H109)</f>
+        <f t="shared" ref="H114" si="32">_xlfn.STDEV.P(H105:H109)</f>
         <v>0.44141617550787721</v>
       </c>
       <c r="I114" s="12">
@@ -17200,11 +17003,11 @@
         <v>19</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" ref="M114:N114" si="31">_xlfn.STDEV.P(M105:M109)</f>
+        <f t="shared" ref="M114:N114" si="33">_xlfn.STDEV.P(M105:M109)</f>
         <v>0.71879549247334473</v>
       </c>
       <c r="N114" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>24.136184777893302</v>
       </c>
       <c r="O114" s="13" t="s">

--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erasmo/Desktop/GitHubClone/Progetto-Operating_systems_for_mobile_cloud_and_IoT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AE9231-F5B0-442C-94C7-9DDC41957221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A2CA1-F311-2D44-BFA7-10562437AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="optVSnopt" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="41">
   <si>
     <t>Scenario 5</t>
-  </si>
-  <si>
-    <t>Duration (S)</t>
-  </si>
-  <si>
-    <t>Energy (J)</t>
   </si>
   <si>
     <t>Scenario 3</t>
@@ -80,22 +74,10 @@
     <t>Prova 5</t>
   </si>
   <si>
-    <t>Durata</t>
-  </si>
-  <si>
-    <t>Joule</t>
-  </si>
-  <si>
-    <t>Joule/Minuti</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
     <t>Mediana</t>
-  </si>
-  <si>
-    <t>Dev Stand</t>
   </si>
   <si>
     <t>/</t>
@@ -165,6 +147,18 @@
   </si>
   <si>
     <t>OptP2</t>
+  </si>
+  <si>
+    <t>Durata (s)</t>
+  </si>
+  <si>
+    <t>Energia (J)</t>
+  </si>
+  <si>
+    <t>Energia (J/Min)</t>
+  </si>
+  <si>
+    <t>Dev. Stand.</t>
   </si>
 </sst>
 </file>
@@ -376,27 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,15 +420,6 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,45 +462,60 @@
     <xf numFmtId="2" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,7 +533,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -617,7 +602,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -761,7 +746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326436336"/>
@@ -823,7 +808,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="322954896"/>
@@ -871,7 +856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -885,7 +870,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -952,7 +937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1267,7 +1252,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1305,7 +1290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148970623"/>
@@ -1371,7 +1356,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1409,7 +1394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="152148671"/>
@@ -1451,7 +1436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1488,7 +1473,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1502,7 +1487,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1579,7 +1564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1735,7 +1720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143706399"/>
@@ -1797,7 +1782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67969567"/>
@@ -1845,7 +1830,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1859,7 +1844,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1928,7 +1913,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2084,7 +2069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224308367"/>
@@ -2146,7 +2131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81105487"/>
@@ -2194,7 +2179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2208,7 +2193,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2305,7 +2290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2461,7 +2446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80598719"/>
@@ -2523,7 +2508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67964767"/>
@@ -2571,7 +2556,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2585,7 +2570,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2652,7 +2637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2796,7 +2781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67594639"/>
@@ -2858,7 +2843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81118927"/>
@@ -2906,7 +2891,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2920,7 +2905,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2989,7 +2974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3145,7 +3130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367297264"/>
@@ -3207,7 +3192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="362817024"/>
@@ -3255,7 +3240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3269,7 +3254,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3346,7 +3331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3502,7 +3487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523895008"/>
@@ -3564,7 +3549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522431920"/>
@@ -3612,7 +3597,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3626,7 +3611,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3695,7 +3680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3851,7 +3836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523847888"/>
@@ -3913,7 +3898,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522431440"/>
@@ -3961,7 +3946,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3975,7 +3960,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4044,7 +4029,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4188,7 +4173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523846896"/>
@@ -4250,7 +4235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522449680"/>
@@ -4298,7 +4283,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4312,7 +4297,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4379,7 +4364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4399,7 +4384,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Duration (S)</c:v>
+                  <c:v>Durata (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4518,7 +4503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy (J)</c:v>
+                  <c:v>Energia (J)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4682,7 +4667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386470944"/>
@@ -4741,7 +4726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522433840"/>
@@ -4783,7 +4768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4820,7 +4805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4834,7 +4819,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4903,7 +4888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5047,7 +5032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326425920"/>
@@ -5109,7 +5094,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295556336"/>
@@ -5157,7 +5142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5171,7 +5156,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5233,7 +5218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5266,10 +5251,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Durata</c:v>
+                  <c:v>Durata (s)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Joule</c:v>
+                  <c:v>Energia (J)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5317,10 +5302,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Durata</c:v>
+                  <c:v>Durata (s)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Joule</c:v>
+                  <c:v>Energia (J)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5368,10 +5353,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Durata</c:v>
+                  <c:v>Durata (s)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Joule</c:v>
+                  <c:v>Energia (J)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5421,10 +5406,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Durata</c:v>
+                  <c:v>Durata (s)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Joule</c:v>
+                  <c:v>Energia (J)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5507,10 +5492,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Durata</c:v>
+                        <c:v>Durata (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Joule</c:v>
+                        <c:v>Energia (J)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5549,7 +5534,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>optVSnopt!$L$13</c15:sqref>
@@ -5576,7 +5561,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>optVSnopt!$M$5:$N$5</c15:sqref>
@@ -5586,17 +5571,17 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Durata</c:v>
+                        <c:v>Durata (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Joule</c:v>
+                        <c:v>Energia (J)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>optVSnopt!$M$13:$N$13</c15:sqref>
@@ -5615,7 +5600,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-B1F4-4144-9508-1074CD55A8A0}"/>
                   </c:ext>
@@ -5628,7 +5613,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>optVSnopt!$L$17</c15:sqref>
@@ -5655,7 +5640,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>optVSnopt!$M$5:$N$5</c15:sqref>
@@ -5665,17 +5650,17 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Durata</c:v>
+                        <c:v>Durata (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Joule</c:v>
+                        <c:v>Energia (J)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>optVSnopt!$M$17:$N$17</c15:sqref>
@@ -5694,7 +5679,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-B1F4-4144-9508-1074CD55A8A0}"/>
                   </c:ext>
@@ -5745,7 +5730,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516853712"/>
@@ -5804,7 +5789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265968944"/>
@@ -5846,7 +5831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5876,7 +5861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5890,7 +5875,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5959,7 +5944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6115,7 +6100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326425424"/>
@@ -6177,7 +6162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="356817920"/>
@@ -6225,7 +6210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6239,7 +6224,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6316,7 +6301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6472,7 +6457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326431376"/>
@@ -6534,7 +6519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="323024960"/>
@@ -6582,7 +6567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6596,7 +6581,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6665,7 +6650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6821,7 +6806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328385328"/>
@@ -6883,7 +6868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="293476416"/>
@@ -6931,7 +6916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6945,7 +6930,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7014,7 +6999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7170,7 +7155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175562928"/>
@@ -7232,7 +7217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="330422896"/>
@@ -7280,7 +7265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7294,7 +7279,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7363,7 +7348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7519,7 +7504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="286804512"/>
@@ -7581,7 +7566,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="359933712"/>
@@ -7629,7 +7614,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7643,7 +7628,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7712,7 +7697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7868,7 +7853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328401696"/>
@@ -7930,7 +7915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295925072"/>
@@ -7978,7 +7963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7992,7 +7977,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8059,7 +8044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8422,7 +8407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8460,7 +8445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="391293855"/>
@@ -8525,7 +8510,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8563,7 +8548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397235647"/>
@@ -8605,7 +8590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8642,7 +8627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20737,798 +20722,635 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="25.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.21875" style="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="16.21875" style="1"/>
-    <col min="11" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.21875" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="16.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
+    <row r="1" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
     </row>
-    <row r="3" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="7"/>
+    <row r="3" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="46"/>
     </row>
-    <row r="4" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
+    <row r="4" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="13"/>
+    <row r="5" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="41">
+    <row r="6" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" ref="C6:D8" si="0">R27</f>
         <v>133.93099999999998</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>178.59186019999999</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="41">
+      <c r="E6" s="33"/>
+      <c r="L6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1">
         <f>AVERAGE(C6:C8)</f>
         <v>94.781133333333329</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="1">
         <f>AVERAGE(D6:D8)</f>
         <v>124.54847006666667</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="1">
         <f t="shared" ref="O6:O7" si="1">N6/M6</f>
         <v>1.3140639459189136</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="13"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="41">
+    <row r="7" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>49.9452</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>69.890517200000005</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="41">
+      <c r="E7" s="32"/>
+      <c r="L7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1">
         <f>MEDIAN(C6:C8)</f>
         <v>100.46720000000001</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="1">
         <f>MEDIAN(D6:D8)</f>
         <v>125.1630328</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
         <v>1.2458099041279143</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="13"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="41">
+    <row r="8" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>100.46720000000001</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>125.1630328</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="41">
+      <c r="E8" s="32"/>
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1">
         <f>_xlfn.STDEV.P(C6:C8)</f>
         <v>34.521994592948367</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="1">
         <f>_xlfn.STDEV.P(D6:D8)</f>
         <v>44.379265113457421</v>
       </c>
-      <c r="O8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="13"/>
+      <c r="O8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>136.6378</v>
+      </c>
+      <c r="D9" s="1">
+        <v>161.58733359999997</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="L9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="41">
-        <v>136.6378</v>
-      </c>
-      <c r="D9" s="41">
-        <v>161.58733359999997</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="16"/>
+      <c r="M9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="41">
+    <row r="10" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <v>55.073400000000007</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="1">
         <v>62.772140799999988</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="41">
+      <c r="E10" s="32"/>
+      <c r="L10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1">
         <f>AVERAGE(C9:C11)</f>
         <v>97.697666666666677</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="1">
         <f>AVERAGE(D9:D11)</f>
         <v>112.05304713333332</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="1">
         <f t="shared" ref="O10:O11" si="2">N10/M10</f>
         <v>1.146936779111067</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="16"/>
+      <c r="R10" s="32"/>
+      <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="41">
+    <row r="11" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
         <v>101.3818</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="1">
         <v>111.799667</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="41">
+      <c r="E11" s="32"/>
+      <c r="L11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1">
         <f>MEDIAN(C9:C11)</f>
         <v>101.3818</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="1">
         <f>MEDIAN(D9:D11)</f>
         <v>111.799667</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="1">
         <f t="shared" si="2"/>
         <v>1.1027587495980542</v>
       </c>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
       <c r="R11" s="47"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="16"/>
+      <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="41">
+    <row r="12" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
         <v>135.4888</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="1">
         <v>162.152805</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="41">
+      <c r="L12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="1">
         <f>_xlfn.STDEV.P(C9:C11)</f>
         <v>33.400274107191898</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="1">
         <f>_xlfn.STDEV.P(D9:D11)</f>
         <v>40.341531396682413</v>
       </c>
-      <c r="O12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="O12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="R12" s="47"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="16"/>
+      <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50.514400000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>61.665340200000003</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="41">
-        <v>50.514400000000002</v>
-      </c>
-      <c r="D13" s="41">
-        <v>61.665340200000003</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
       <c r="R13" s="47"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="16"/>
+      <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="41">
+    <row r="14" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
         <v>102.39280000000001</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="1">
         <v>116.07683540000001</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="41">
+      <c r="L14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
         <f>AVERAGE(C12:C14)</f>
         <v>96.132000000000005</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="1">
         <f>AVERAGE(D12:D14)</f>
         <v>113.29832686666667</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="1">
         <f t="shared" ref="O14:O15" si="3">N14/M14</f>
         <v>1.178570370601534</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="16"/>
+      <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="41">
+    <row r="15" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" ref="C15:D17" si="4">R105</f>
         <v>138.95179999999999</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="1">
         <f t="shared" si="4"/>
         <v>180.15037240000001</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="41">
+      <c r="L15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
         <f>MEDIAN(C12:C14)</f>
         <v>102.39280000000001</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="1">
         <f>MEDIAN(D12:D14)</f>
         <v>116.07683540000001</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="1">
         <f t="shared" si="3"/>
         <v>1.1336425549452696</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="16"/>
+      <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="41">
+    <row r="16" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
         <f t="shared" si="4"/>
         <v>39.946600000000004</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="1">
         <f t="shared" si="4"/>
         <v>54.237206999999998</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="41">
+      <c r="L16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="1">
         <f>_xlfn.STDEV.P(C12:C14)</f>
         <v>34.971992377901493</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="1">
         <f>_xlfn.STDEV.P(D12:D14)</f>
         <v>41.070855260433063</v>
       </c>
-      <c r="O16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="16"/>
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="41">
+    <row r="17" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
         <f t="shared" si="4"/>
         <v>103.67720000000001</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="1">
         <f t="shared" si="4"/>
         <v>114.88823659999998</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="16"/>
+      <c r="L17" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="41">
+    <row r="18" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="L18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="1">
         <f>AVERAGE(C15:C17)</f>
         <v>94.19186666666667</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="1">
         <f>AVERAGE(D15:D17)</f>
         <v>116.42527199999999</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="1">
         <f>N18/M18</f>
         <v>1.236043791466779</v>
       </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="16"/>
+      <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="41">
+    <row r="19" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="L19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1">
         <f>MEDIAN(C15:C17)</f>
         <v>103.67720000000001</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="1">
         <f>MEDIAN(D15:D17)</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="1">
         <f>N19/M19</f>
         <v>1.1081340603334191</v>
       </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="16"/>
+      <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="41">
+    <row r="20" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="L20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="1">
         <f>_xlfn.STDEV.P(C15:C17)</f>
         <v>40.971421487774741</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="1">
         <f>_xlfn.STDEV.P(D15:D17)</f>
         <v>51.415323031353083</v>
       </c>
-      <c r="O20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="16"/>
+      <c r="O20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="21"/>
+    <row r="21" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="20"/>
-      <c r="T22" s="20"/>
+    <row r="22" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="5"/>
+    <row r="23" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="40"/>
     </row>
-    <row r="24" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="24"/>
+    <row r="24" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="43"/>
     </row>
-    <row r="25" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="18"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="T25" s="16"/>
+    <row r="25" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="G26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="H26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="L26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="G26" s="26" t="s">
+      <c r="M26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="Q26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="L26" s="28" t="s">
+      <c r="R26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="Q26" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>101.74299999999999</v>
@@ -21536,9 +21358,9 @@
       <c r="D27" s="1">
         <v>133.066329</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="G27" s="14" t="s">
-        <v>6</v>
+      <c r="E27" s="11"/>
+      <c r="G27" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H27" s="1">
         <v>59.753</v>
@@ -21546,9 +21368,9 @@
       <c r="I27" s="1">
         <v>71.509658000000002</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="L27" s="14" t="s">
-        <v>6</v>
+      <c r="J27" s="11"/>
+      <c r="L27" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="M27" s="1">
         <v>135.14699999999999</v>
@@ -21556,9 +21378,9 @@
       <c r="N27" s="1">
         <v>190.88302899999999</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="Q27" s="14" t="s">
-        <v>7</v>
+      <c r="O27" s="11"/>
+      <c r="Q27" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="R27" s="1">
         <f>M34</f>
@@ -21568,11 +21390,11 @@
         <f>N34</f>
         <v>178.59186019999999</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>8</v>
+    <row r="28" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>94.453999999999994</v>
@@ -21580,9 +21402,9 @@
       <c r="D28" s="1">
         <v>89.647870999999995</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="G28" s="14" t="s">
-        <v>8</v>
+      <c r="E28" s="11"/>
+      <c r="G28" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H28" s="1">
         <v>38.305</v>
@@ -21590,9 +21412,9 @@
       <c r="I28" s="1">
         <v>67.098872999999998</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="L28" s="14" t="s">
-        <v>8</v>
+      <c r="J28" s="11"/>
+      <c r="L28" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="M28" s="1">
         <v>134.84899999999999</v>
@@ -21600,9 +21422,9 @@
       <c r="N28" s="1">
         <v>153.69038399999999</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="Q28" s="14" t="s">
-        <v>9</v>
+      <c r="O28" s="11"/>
+      <c r="Q28" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="R28" s="1">
         <f>H34</f>
@@ -21612,11 +21434,11 @@
         <f>I34</f>
         <v>69.890517200000005</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="11"/>
     </row>
-    <row r="29" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>10</v>
+    <row r="29" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>103.21599999999999</v>
@@ -21624,9 +21446,9 @@
       <c r="D29" s="1">
         <v>158.199432</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="G29" s="14" t="s">
-        <v>10</v>
+      <c r="E29" s="11"/>
+      <c r="G29" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="1">
         <v>55.305</v>
@@ -21634,9 +21456,9 @@
       <c r="I29" s="1">
         <v>48.402011999999999</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="L29" s="14" t="s">
-        <v>10</v>
+      <c r="J29" s="11"/>
+      <c r="L29" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="1">
         <v>131.483</v>
@@ -21644,9 +21466,9 @@
       <c r="N29" s="1">
         <v>188.336545</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="Q29" s="14" t="s">
-        <v>11</v>
+      <c r="O29" s="11"/>
+      <c r="Q29" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="R29" s="1">
         <f>C34</f>
@@ -21656,11 +21478,11 @@
         <f>D34</f>
         <v>125.1630328</v>
       </c>
-      <c r="T29" s="16"/>
+      <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>12</v>
+    <row r="30" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>99.418000000000006</v>
@@ -21668,9 +21490,9 @@
       <c r="D30" s="1">
         <v>146.145983</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="G30" s="14" t="s">
-        <v>12</v>
+      <c r="E30" s="11"/>
+      <c r="G30" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="1">
         <v>43.411999999999999</v>
@@ -21678,9 +21500,9 @@
       <c r="I30" s="1">
         <v>70.126869999999997</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="L30" s="14" t="s">
-        <v>12</v>
+      <c r="J30" s="11"/>
+      <c r="L30" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M30" s="1">
         <v>135.31899999999999</v>
@@ -21688,13 +21510,13 @@
       <c r="N30" s="1">
         <v>157.655112</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="Q30" s="18"/>
-      <c r="T30" s="16"/>
+      <c r="O30" s="11"/>
+      <c r="Q30" s="13"/>
+      <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>13</v>
+    <row r="31" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>103.505</v>
@@ -21702,9 +21524,9 @@
       <c r="D31" s="1">
         <v>98.755549000000002</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="G31" s="14" t="s">
-        <v>13</v>
+      <c r="E31" s="11"/>
+      <c r="G31" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H31" s="1">
         <v>52.951000000000001</v>
@@ -21712,9 +21534,9 @@
       <c r="I31" s="1">
         <v>92.315173000000001</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="L31" s="14" t="s">
-        <v>13</v>
+      <c r="J31" s="11"/>
+      <c r="L31" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="M31" s="1">
         <v>132.857</v>
@@ -21722,27 +21544,27 @@
       <c r="N31" s="1">
         <v>202.39423099999999</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="T31" s="29" t="s">
-        <v>16</v>
+      <c r="O31" s="11"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="E32" s="16"/>
-      <c r="G32" s="18"/>
-      <c r="J32" s="16"/>
-      <c r="L32" s="18"/>
-      <c r="O32" s="16"/>
-      <c r="Q32" s="30" t="s">
-        <v>17</v>
+    <row r="32" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="J32" s="11"/>
+      <c r="L32" s="13"/>
+      <c r="O32" s="11"/>
+      <c r="Q32" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="R32" s="1">
         <f>AVERAGE(R27:R29)</f>
@@ -21752,44 +21574,44 @@
         <f>AVERAGE(S27:S29)</f>
         <v>124.54847006666667</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="11">
         <f t="shared" ref="T32:T33" si="5">S32/R32</f>
         <v>1.3140639459189136</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>18</v>
+    <row r="33" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="R33" s="1">
         <f>MEDIAN(R27:R29)</f>
@@ -21799,14 +21621,14 @@
         <f>MEDIAN(S27:S29)</f>
         <v>125.1630328</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="11">
         <f t="shared" si="5"/>
         <v>1.2458099041279143</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="30" t="s">
-        <v>17</v>
+    <row r="34" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C34" s="1">
         <f>AVERAGE(C27:C31)</f>
@@ -21816,12 +21638,12 @@
         <f>AVERAGE(D27:D31)</f>
         <v>125.1630328</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="11">
         <f>D34/C34</f>
         <v>1.2458099041279143</v>
       </c>
-      <c r="G34" s="30" t="s">
-        <v>17</v>
+      <c r="G34" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H34" s="1">
         <f>AVERAGE(H27:H31)</f>
@@ -21831,12 +21653,12 @@
         <f t="shared" ref="I34" si="6">AVERAGE(I27:I31)</f>
         <v>69.890517200000005</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="11">
         <f t="shared" ref="J34:J35" si="7">I34/H34</f>
         <v>1.3993440250514566</v>
       </c>
-      <c r="L34" s="30" t="s">
-        <v>17</v>
+      <c r="L34" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" ref="M34:N34" si="8">AVERAGE(M27:M31)</f>
@@ -21846,28 +21668,28 @@
         <f t="shared" si="8"/>
         <v>178.59186019999999</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="11">
         <f t="shared" ref="O34:O35" si="9">N34/M34</f>
         <v>1.3334617093876697</v>
       </c>
-      <c r="Q34" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="20">
+      <c r="Q34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="15">
         <f>_xlfn.STDEV.P(R27:R29)</f>
         <v>34.521994592948367</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="15">
         <f>_xlfn.STDEV.P(S27:S29)</f>
         <v>44.379265113457421</v>
       </c>
-      <c r="T34" s="21" t="s">
-        <v>20</v>
+      <c r="T34" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>18</v>
+    <row r="35" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="1">
         <f>MEDIAN(C27:C31)</f>
@@ -21877,12 +21699,12 @@
         <f>MEDIAN(D27:D31)</f>
         <v>133.066329</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="11">
         <f>D35/C35</f>
         <v>1.30786716530867</v>
       </c>
-      <c r="G35" s="30" t="s">
-        <v>18</v>
+      <c r="G35" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" ref="H35:I35" si="10">MEDIAN(H27:H31)</f>
@@ -21892,12 +21714,12 @@
         <f t="shared" si="10"/>
         <v>70.126869999999997</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="11">
         <f t="shared" si="7"/>
         <v>1.3243729108043285</v>
       </c>
-      <c r="L35" s="30" t="s">
-        <v>18</v>
+      <c r="L35" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" ref="M35:N35" si="11">MEDIAN(M27:M31)</f>
@@ -21907,221 +21729,221 @@
         <f t="shared" si="11"/>
         <v>188.336545</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="11">
         <f t="shared" si="9"/>
         <v>1.3966476948290312</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="20">
+    <row r="36" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="15">
         <f>_xlfn.STDEV.P(C27:C31)</f>
         <v>3.3368005873890634</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="15">
         <f>_xlfn.STDEV.P(D27:D31)</f>
         <v>26.656450927870459</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="20">
+      <c r="E36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="15">
         <f t="shared" ref="H36" si="12">_xlfn.STDEV.P(H27:H31)</f>
         <v>7.9010402960622743</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="15">
         <f>_xlfn.STDEV.P(I27:I31)</f>
         <v>13.964897424575572</v>
       </c>
-      <c r="J36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="20">
+      <c r="J36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="15">
         <f t="shared" ref="M36:N36" si="13">_xlfn.STDEV.P(M27:M31)</f>
         <v>1.5095763644148585</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="15">
         <f t="shared" si="13"/>
         <v>19.344329971087195</v>
       </c>
-      <c r="O36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" s="16"/>
+      <c r="O36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
-      <c r="T37" s="16"/>
+    <row r="37" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="T37" s="11"/>
     </row>
-    <row r="38" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="T38" s="16"/>
+    <row r="38" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
+      <c r="T38" s="11"/>
     </row>
-    <row r="39" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18"/>
-      <c r="T39" s="16"/>
+    <row r="39" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
+      <c r="T39" s="11"/>
     </row>
-    <row r="40" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="18"/>
-      <c r="T40" s="16"/>
+    <row r="40" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="T40" s="11"/>
     </row>
-    <row r="41" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="18"/>
-      <c r="T41" s="16"/>
+    <row r="41" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="13"/>
+      <c r="T41" s="11"/>
     </row>
-    <row r="42" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="T42" s="16"/>
+    <row r="42" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="T42" s="11"/>
     </row>
-    <row r="43" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
-      <c r="T43" s="16"/>
+    <row r="43" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
-      <c r="T44" s="16"/>
+    <row r="44" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
+      <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="T45" s="16"/>
+    <row r="45" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+      <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
-      <c r="T46" s="16"/>
+    <row r="46" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="21"/>
+    <row r="47" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="5"/>
+    <row r="48" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="40"/>
     </row>
-    <row r="50" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="24"/>
+    <row r="50" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="43"/>
     </row>
-    <row r="51" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="18"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="T51" s="16"/>
+    <row r="51" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="T51" s="11"/>
     </row>
-    <row r="52" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="26" t="s">
+    <row r="52" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="G52" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="H52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="L52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="G52" s="26" t="s">
+      <c r="M52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="Q52" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="10"/>
-      <c r="L52" s="28" t="s">
+      <c r="R52" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O52" s="10"/>
-      <c r="Q52" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S52" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T52" s="10"/>
-    </row>
-    <row r="53" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>6</v>
       </c>
       <c r="C53" s="1">
         <v>101.38</v>
@@ -22129,29 +21951,29 @@
       <c r="D53" s="1">
         <v>90.967184999999986</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="G53" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="32">
+      <c r="E53" s="11"/>
+      <c r="G53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="24">
         <v>58.121000000000002</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="24">
         <v>71.347314000000011</v>
       </c>
-      <c r="J53" s="16"/>
-      <c r="L53" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" s="32">
+      <c r="J53" s="11"/>
+      <c r="L53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="24">
         <v>136.57900000000001</v>
       </c>
-      <c r="N53" s="32">
+      <c r="N53" s="24">
         <v>198.98197200000001</v>
       </c>
-      <c r="O53" s="16"/>
-      <c r="Q53" s="14" t="s">
-        <v>7</v>
+      <c r="O53" s="11"/>
+      <c r="Q53" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="R53" s="1">
         <f>M60</f>
@@ -22161,11 +21983,11 @@
         <f>N60</f>
         <v>161.58733359999997</v>
       </c>
-      <c r="T53" s="16"/>
+      <c r="T53" s="11"/>
     </row>
-    <row r="54" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
-        <v>8</v>
+    <row r="54" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C54" s="1">
         <v>101.41</v>
@@ -22173,29 +21995,29 @@
       <c r="D54" s="1">
         <v>137.83652500000002</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="G54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="32">
+      <c r="E54" s="11"/>
+      <c r="G54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="24">
         <v>55.320999999999998</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="24">
         <v>52.350847999999985</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="L54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="32">
+      <c r="J54" s="11"/>
+      <c r="L54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="24">
         <v>137.322</v>
       </c>
-      <c r="N54" s="32">
+      <c r="N54" s="24">
         <v>138.01236800000001</v>
       </c>
-      <c r="O54" s="16"/>
-      <c r="Q54" s="14" t="s">
-        <v>9</v>
+      <c r="O54" s="11"/>
+      <c r="Q54" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="R54" s="1">
         <f>H60</f>
@@ -22205,11 +22027,11 @@
         <f>I60</f>
         <v>62.772140799999988</v>
       </c>
-      <c r="T54" s="16"/>
+      <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
-        <v>10</v>
+    <row r="55" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C55" s="1">
         <v>101.407</v>
@@ -22217,29 +22039,29 @@
       <c r="D55" s="1">
         <v>100.497659</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="G55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="32">
+      <c r="E55" s="11"/>
+      <c r="G55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="24">
         <v>53.064999999999998</v>
       </c>
-      <c r="I55" s="32">
+      <c r="I55" s="24">
         <v>99.505318999999957</v>
       </c>
-      <c r="J55" s="16"/>
-      <c r="L55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M55" s="32">
+      <c r="J55" s="11"/>
+      <c r="L55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="24">
         <v>136.55600000000001</v>
       </c>
-      <c r="N55" s="32">
+      <c r="N55" s="24">
         <v>154.58476999999993</v>
       </c>
-      <c r="O55" s="16"/>
-      <c r="Q55" s="14" t="s">
-        <v>11</v>
+      <c r="O55" s="11"/>
+      <c r="Q55" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="R55" s="1">
         <f>C60</f>
@@ -22249,11 +22071,11 @@
         <f>D60</f>
         <v>111.799667</v>
       </c>
-      <c r="T55" s="16"/>
+      <c r="T55" s="11"/>
     </row>
-    <row r="56" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="14" t="s">
-        <v>12</v>
+    <row r="56" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C56" s="1">
         <v>101.349</v>
@@ -22261,19 +22083,19 @@
       <c r="D56" s="1">
         <v>136.12500699999998</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="G56" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="32">
+      <c r="E56" s="11"/>
+      <c r="G56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="24">
         <v>53.207000000000001</v>
       </c>
-      <c r="I56" s="32">
+      <c r="I56" s="24">
         <v>50.783741000000006</v>
       </c>
-      <c r="J56" s="16"/>
-      <c r="L56" s="14" t="s">
-        <v>12</v>
+      <c r="J56" s="11"/>
+      <c r="L56" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M56" s="1">
         <v>136.16399999999999</v>
@@ -22281,13 +22103,13 @@
       <c r="N56" s="1">
         <v>158.99211199999988</v>
       </c>
-      <c r="O56" s="16"/>
-      <c r="Q56" s="18"/>
-      <c r="T56" s="16"/>
+      <c r="O56" s="11"/>
+      <c r="Q56" s="13"/>
+      <c r="T56" s="11"/>
     </row>
-    <row r="57" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
-        <v>13</v>
+    <row r="57" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C57" s="1">
         <v>101.363</v>
@@ -22295,19 +22117,19 @@
       <c r="D57" s="1">
         <v>93.57195899999995</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="G57" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="32">
+      <c r="E57" s="11"/>
+      <c r="G57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="24">
         <v>55.652999999999999</v>
       </c>
-      <c r="I57" s="32">
+      <c r="I57" s="24">
         <v>39.873481999999989</v>
       </c>
-      <c r="J57" s="16"/>
-      <c r="L57" s="14" t="s">
-        <v>13</v>
+      <c r="J57" s="11"/>
+      <c r="L57" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="M57" s="1">
         <v>136.56800000000001</v>
@@ -22315,27 +22137,27 @@
       <c r="N57" s="1">
         <v>157.36544600000002</v>
       </c>
-      <c r="O57" s="16"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="T57" s="29" t="s">
-        <v>16</v>
+      <c r="O57" s="11"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="E58" s="16"/>
-      <c r="G58" s="18"/>
-      <c r="J58" s="16"/>
-      <c r="L58" s="18"/>
-      <c r="O58" s="16"/>
-      <c r="Q58" s="30" t="s">
-        <v>17</v>
+    <row r="58" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="13"/>
+      <c r="E58" s="11"/>
+      <c r="G58" s="13"/>
+      <c r="J58" s="11"/>
+      <c r="L58" s="13"/>
+      <c r="O58" s="11"/>
+      <c r="Q58" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="R58" s="1">
         <f>AVERAGE(R53:R55)</f>
@@ -22345,44 +22167,44 @@
         <f>AVERAGE(S53:S55)</f>
         <v>112.05304713333332</v>
       </c>
-      <c r="T58" s="16">
+      <c r="T58" s="11">
         <f t="shared" ref="T58:T59" si="14">S58/R58</f>
         <v>1.146936779111067</v>
       </c>
     </row>
-    <row r="59" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="18"/>
-      <c r="C59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q59" s="30" t="s">
-        <v>18</v>
+    <row r="59" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13"/>
+      <c r="C59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q59" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="R59" s="1">
         <f>MEDIAN(R53:R55)</f>
@@ -22392,14 +22214,14 @@
         <f>MEDIAN(S53:S55)</f>
         <v>111.799667</v>
       </c>
-      <c r="T59" s="16">
+      <c r="T59" s="11">
         <f t="shared" si="14"/>
         <v>1.1027587495980542</v>
       </c>
     </row>
-    <row r="60" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="30" t="s">
-        <v>17</v>
+    <row r="60" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C60" s="1">
         <f>AVERAGE(C53:C57)</f>
@@ -22409,12 +22231,12 @@
         <f>AVERAGE(D53:D57)</f>
         <v>111.799667</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="11">
         <f t="shared" ref="E60:E61" si="15">D60/C60</f>
         <v>1.1027587495980542</v>
       </c>
-      <c r="G60" s="30" t="s">
-        <v>17</v>
+      <c r="G60" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H60" s="1">
         <f>AVERAGE(H53:H57)</f>
@@ -22424,12 +22246,12 @@
         <f t="shared" ref="I60" si="16">AVERAGE(I53:I57)</f>
         <v>62.772140799999988</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="11">
         <f t="shared" ref="J60:J61" si="17">I60/H60</f>
         <v>1.1397905486133049</v>
       </c>
-      <c r="L60" s="30" t="s">
-        <v>17</v>
+      <c r="L60" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="M60" s="1">
         <f>AVERAGE(M53:M57)</f>
@@ -22439,28 +22261,28 @@
         <f>AVERAGE(N53:N57)</f>
         <v>161.58733359999997</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="11">
         <f t="shared" ref="O60:O61" si="18">N60/M60</f>
         <v>1.1825961307925037</v>
       </c>
-      <c r="Q60" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R60" s="20">
+      <c r="Q60" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" s="15">
         <f>_xlfn.STDEV.P(R53:R55)</f>
         <v>33.400274107191898</v>
       </c>
-      <c r="S60" s="20">
+      <c r="S60" s="15">
         <f>_xlfn.STDEV.P(S53:S55)</f>
         <v>40.341531396682413</v>
       </c>
-      <c r="T60" s="21" t="s">
-        <v>20</v>
+      <c r="T60" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>18</v>
+    <row r="61" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" ref="C61" si="19">MEDIAN(C53:C57)</f>
@@ -22470,12 +22292,12 @@
         <f>MEDIAN(D53:D57)</f>
         <v>100.497659</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="11">
         <f t="shared" si="15"/>
         <v>0.99129669560071021</v>
       </c>
-      <c r="G61" s="30" t="s">
-        <v>18</v>
+      <c r="G61" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" ref="H61:I61" si="20">MEDIAN(H53:H57)</f>
@@ -22485,12 +22307,12 @@
         <f t="shared" si="20"/>
         <v>52.350847999999985</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="11">
         <f t="shared" si="17"/>
         <v>0.94631058729957862</v>
       </c>
-      <c r="L61" s="30" t="s">
-        <v>18</v>
+      <c r="L61" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" ref="M61" si="21">MEDIAN(M53:M57)</f>
@@ -22500,219 +22322,219 @@
         <f>MEDIAN(N53:N57)</f>
         <v>157.36544600000002</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="11">
         <f t="shared" si="18"/>
         <v>1.15228637748228</v>
       </c>
-      <c r="T61" s="16"/>
+      <c r="T61" s="11"/>
     </row>
-    <row r="62" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="20">
+    <row r="62" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="15">
         <f t="shared" ref="C62" si="22">_xlfn.STDEV.P(C53:C57)</f>
         <v>2.3928226010297617E-2</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="15">
         <f>_xlfn.STDEV.P(D53:D57)</f>
         <v>20.802005531551146</v>
       </c>
-      <c r="E62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="20">
+      <c r="E62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="15">
         <f t="shared" ref="H62" si="23">_xlfn.STDEV.P(H53:H57)</f>
         <v>1.8548437777883084</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="15">
         <f>_xlfn.STDEV.P(I53:I57)</f>
         <v>20.973953486692697</v>
       </c>
-      <c r="J62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M62" s="20">
+      <c r="J62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62" s="15">
         <f t="shared" ref="M62" si="24">_xlfn.STDEV.P(M53:M57)</f>
         <v>0.37620122275187023</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="15">
         <f>_xlfn.STDEV.P(N53:N57)</f>
         <v>20.138189546928718</v>
       </c>
-      <c r="O62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T62" s="16"/>
+      <c r="O62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62" s="11"/>
     </row>
-    <row r="63" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
-      <c r="T63" s="16"/>
+    <row r="63" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="13"/>
+      <c r="T63" s="11"/>
     </row>
-    <row r="64" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="18"/>
-      <c r="T64" s="16"/>
+    <row r="64" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="13"/>
+      <c r="T64" s="11"/>
     </row>
-    <row r="65" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="18"/>
-      <c r="T65" s="16"/>
+    <row r="65" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13"/>
+      <c r="T65" s="11"/>
     </row>
-    <row r="66" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
-      <c r="T66" s="16"/>
+    <row r="66" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="13"/>
+      <c r="T66" s="11"/>
     </row>
-    <row r="67" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="18"/>
-      <c r="T67" s="16"/>
+    <row r="67" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="13"/>
+      <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="18"/>
-      <c r="T68" s="16"/>
+    <row r="68" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13"/>
+      <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="T69" s="16"/>
+    <row r="69" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
+      <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
-      <c r="T70" s="16"/>
+    <row r="70" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
+      <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
-      <c r="T71" s="16"/>
+    <row r="71" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+      <c r="T71" s="11"/>
     </row>
-    <row r="72" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="18"/>
-      <c r="T72" s="16"/>
+    <row r="72" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
+      <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="21"/>
+    <row r="73" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="16"/>
     </row>
-    <row r="74" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="5"/>
+    <row r="74" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="40"/>
     </row>
-    <row r="76" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="24"/>
+    <row r="76" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="43"/>
     </row>
-    <row r="77" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="18"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="T77" s="16"/>
+    <row r="77" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="13"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="T77" s="11"/>
     </row>
-    <row r="78" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="26" t="s">
+    <row r="78" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="G78" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="H78" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="L78" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="G78" s="26" t="s">
+      <c r="M78" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O78" s="5"/>
+      <c r="Q78" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="10"/>
-      <c r="L78" s="28" t="s">
+      <c r="R78" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O78" s="10"/>
-      <c r="Q78" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="R78" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S78" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T78" s="10"/>
-    </row>
-    <row r="79" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="14" t="s">
-        <v>6</v>
       </c>
       <c r="C79" s="2">
         <v>104.175</v>
@@ -22720,9 +22542,9 @@
       <c r="D79" s="2">
         <v>100.98975099999996</v>
       </c>
-      <c r="E79" s="34"/>
-      <c r="G79" s="14" t="s">
-        <v>6</v>
+      <c r="E79" s="26"/>
+      <c r="G79" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H79" s="1">
         <v>37.767000000000003</v>
@@ -22730,9 +22552,9 @@
       <c r="I79" s="1">
         <v>67.440944000000002</v>
       </c>
-      <c r="J79" s="16"/>
-      <c r="L79" s="14" t="s">
-        <v>6</v>
+      <c r="J79" s="11"/>
+      <c r="L79" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="M79" s="1">
         <v>136.31299999999999</v>
@@ -22740,9 +22562,9 @@
       <c r="N79" s="1">
         <v>168.85493799999995</v>
       </c>
-      <c r="O79" s="16"/>
-      <c r="Q79" s="14" t="s">
-        <v>7</v>
+      <c r="O79" s="11"/>
+      <c r="Q79" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="R79" s="1">
         <f>M86</f>
@@ -22752,11 +22574,11 @@
         <f>N86</f>
         <v>162.152805</v>
       </c>
-      <c r="T79" s="16"/>
+      <c r="T79" s="11"/>
     </row>
-    <row r="80" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="14" t="s">
-        <v>8</v>
+    <row r="80" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C80" s="2">
         <v>101.367</v>
@@ -22764,9 +22586,9 @@
       <c r="D80" s="2">
         <v>131.67097200000003</v>
       </c>
-      <c r="E80" s="34"/>
-      <c r="G80" s="14" t="s">
-        <v>8</v>
+      <c r="E80" s="26"/>
+      <c r="G80" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H80" s="1">
         <v>53.512</v>
@@ -22774,9 +22596,9 @@
       <c r="I80" s="1">
         <v>48.589305999999993</v>
       </c>
-      <c r="J80" s="16"/>
-      <c r="L80" s="14" t="s">
-        <v>8</v>
+      <c r="J80" s="11"/>
+      <c r="L80" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="M80" s="1">
         <v>127.736</v>
@@ -22784,9 +22606,9 @@
       <c r="N80" s="1">
         <v>150.05406899999997</v>
       </c>
-      <c r="O80" s="16"/>
-      <c r="Q80" s="14" t="s">
-        <v>9</v>
+      <c r="O80" s="11"/>
+      <c r="Q80" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="R80" s="1">
         <f>H86</f>
@@ -22796,11 +22618,11 @@
         <f>I86</f>
         <v>61.665340200000003</v>
       </c>
-      <c r="T80" s="16"/>
+      <c r="T80" s="11"/>
     </row>
-    <row r="81" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="14" t="s">
-        <v>10</v>
+    <row r="81" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C81" s="2">
         <v>101.303</v>
@@ -22808,9 +22630,9 @@
       <c r="D81" s="2">
         <v>149.50860000000003</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="G81" s="14" t="s">
-        <v>10</v>
+      <c r="E81" s="26"/>
+      <c r="G81" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H81" s="1">
         <v>53.332000000000001</v>
@@ -22818,9 +22640,9 @@
       <c r="I81" s="1">
         <v>47.998581000000009</v>
       </c>
-      <c r="J81" s="16"/>
-      <c r="L81" s="14" t="s">
-        <v>10</v>
+      <c r="J81" s="11"/>
+      <c r="L81" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="M81" s="1">
         <v>138.88</v>
@@ -22828,9 +22650,9 @@
       <c r="N81" s="1">
         <v>147.29058100000006</v>
       </c>
-      <c r="O81" s="16"/>
-      <c r="Q81" s="14" t="s">
-        <v>11</v>
+      <c r="O81" s="11"/>
+      <c r="Q81" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="R81" s="1">
         <f>C86</f>
@@ -22840,11 +22662,11 @@
         <f>D86</f>
         <v>116.07683540000001</v>
       </c>
-      <c r="T81" s="16"/>
+      <c r="T81" s="11"/>
     </row>
-    <row r="82" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="14" t="s">
-        <v>12</v>
+    <row r="82" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C82" s="2">
         <v>101.291</v>
@@ -22852,9 +22674,9 @@
       <c r="D82" s="2">
         <v>100.62703700000003</v>
       </c>
-      <c r="E82" s="34"/>
-      <c r="G82" s="14" t="s">
-        <v>12</v>
+      <c r="E82" s="26"/>
+      <c r="G82" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H82" s="1">
         <v>53.295000000000002</v>
@@ -22862,9 +22684,9 @@
       <c r="I82" s="1">
         <v>96.041052999999977</v>
       </c>
-      <c r="J82" s="16"/>
-      <c r="L82" s="14" t="s">
-        <v>12</v>
+      <c r="J82" s="11"/>
+      <c r="L82" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M82" s="1">
         <v>138.26499999999999</v>
@@ -22872,13 +22694,13 @@
       <c r="N82" s="1">
         <v>195.31658099999993</v>
       </c>
-      <c r="O82" s="16"/>
-      <c r="Q82" s="18"/>
-      <c r="T82" s="16"/>
+      <c r="O82" s="11"/>
+      <c r="Q82" s="13"/>
+      <c r="T82" s="11"/>
     </row>
-    <row r="83" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="14" t="s">
-        <v>13</v>
+    <row r="83" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C83" s="2">
         <v>103.828</v>
@@ -22886,9 +22708,9 @@
       <c r="D83" s="2">
         <v>97.587816999999944</v>
       </c>
-      <c r="E83" s="34"/>
-      <c r="G83" s="14" t="s">
-        <v>13</v>
+      <c r="E83" s="26"/>
+      <c r="G83" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H83" s="1">
         <v>54.665999999999997</v>
@@ -22896,9 +22718,9 @@
       <c r="I83" s="1">
         <v>48.256816999999998</v>
       </c>
-      <c r="J83" s="16"/>
-      <c r="L83" s="14" t="s">
-        <v>13</v>
+      <c r="J83" s="11"/>
+      <c r="L83" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="M83" s="1">
         <v>136.25</v>
@@ -22906,29 +22728,29 @@
       <c r="N83" s="1">
         <v>149.24785600000001</v>
       </c>
-      <c r="O83" s="16"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S83" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="T83" s="29" t="s">
-        <v>16</v>
+      <c r="O83" s="11"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T83" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="35"/>
+    <row r="84" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="27"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="34"/>
-      <c r="G84" s="18"/>
-      <c r="J84" s="16"/>
-      <c r="L84" s="18"/>
-      <c r="O84" s="16"/>
-      <c r="Q84" s="30" t="s">
-        <v>17</v>
+      <c r="E84" s="26"/>
+      <c r="G84" s="13"/>
+      <c r="J84" s="11"/>
+      <c r="L84" s="13"/>
+      <c r="O84" s="11"/>
+      <c r="Q84" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="R84" s="1">
         <f>AVERAGE(R77:R81)</f>
@@ -22938,44 +22760,44 @@
         <f>AVERAGE(S77:S81)</f>
         <v>113.29832686666667</v>
       </c>
-      <c r="T84" s="16">
+      <c r="T84" s="11">
         <f>S84/R84</f>
         <v>1.178570370601534</v>
       </c>
     </row>
-    <row r="85" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="35"/>
-      <c r="C85" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" s="18"/>
-      <c r="M85" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N85" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q85" s="30" t="s">
-        <v>18</v>
+    <row r="85" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="27"/>
+      <c r="C85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="13"/>
+      <c r="M85" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q85" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="R85" s="1">
         <f>MEDIAN(R77:R81)</f>
@@ -22985,14 +22807,14 @@
         <f>MEDIAN(S77:S81)</f>
         <v>116.07683540000001</v>
       </c>
-      <c r="T85" s="16">
+      <c r="T85" s="11">
         <f>S85/R85</f>
         <v>1.1336425549452696</v>
       </c>
     </row>
-    <row r="86" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="30" t="s">
-        <v>17</v>
+    <row r="86" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C86" s="2">
         <f>AVERAGE(C79:C83)</f>
@@ -23002,12 +22824,12 @@
         <f>AVERAGE(D79:D83)</f>
         <v>116.07683540000001</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="26">
         <f>D86/C86</f>
         <v>1.1336425549452696</v>
       </c>
-      <c r="G86" s="30" t="s">
-        <v>17</v>
+      <c r="G86" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H86" s="1">
         <f>AVERAGE(H79:H83)</f>
@@ -23017,12 +22839,12 @@
         <f>AVERAGE(I79:I83)</f>
         <v>61.665340200000003</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="11">
         <f>I86/H86</f>
         <v>1.2207477511363096</v>
       </c>
-      <c r="L86" s="30" t="s">
-        <v>17</v>
+      <c r="L86" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="M86" s="1">
         <v>135.4888</v>
@@ -23030,27 +22852,27 @@
       <c r="N86" s="1">
         <v>162.152805</v>
       </c>
-      <c r="O86" s="16">
+      <c r="O86" s="11">
         <v>1.1967985914702912</v>
       </c>
-      <c r="Q86" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R86" s="20">
+      <c r="Q86" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R86" s="15">
         <f>_xlfn.STDEV.P(R77:R81)</f>
         <v>34.971992377901493</v>
       </c>
-      <c r="S86" s="20">
+      <c r="S86" s="15">
         <f>_xlfn.STDEV.P(S77:S81)</f>
         <v>41.070855260433063</v>
       </c>
-      <c r="T86" s="21" t="s">
-        <v>20</v>
+      <c r="T86" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>18</v>
+    <row r="87" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="C87" s="2">
         <f>MEDIAN(C79:C83)</f>
@@ -23060,12 +22882,12 @@
         <f>MEDIAN(D79:D83)</f>
         <v>100.98975099999996</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="26">
         <f>D87/C87</f>
         <v>0.99627838448410189</v>
       </c>
-      <c r="G87" s="30" t="s">
-        <v>18</v>
+      <c r="G87" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="H87" s="1">
         <f>MEDIAN(H79:H83)</f>
@@ -23075,12 +22897,12 @@
         <f>MEDIAN(I79:I83)</f>
         <v>48.589305999999993</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="11">
         <f>I87/H87</f>
         <v>0.91107226430660748</v>
       </c>
-      <c r="L87" s="30" t="s">
-        <v>18</v>
+      <c r="L87" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="M87" s="1">
         <v>136.31299999999999</v>
@@ -23088,216 +22910,216 @@
       <c r="N87" s="1">
         <v>150.05406899999997</v>
       </c>
-      <c r="O87" s="16">
+      <c r="O87" s="11">
         <v>1.1008052716908878</v>
       </c>
-      <c r="T87" s="16"/>
+      <c r="T87" s="11"/>
     </row>
-    <row r="88" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="36">
+    <row r="88" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="28">
         <f>_xlfn.STDEV.P(C79:C83)</f>
         <v>1.3183268790402478</v>
       </c>
-      <c r="D88" s="36">
+      <c r="D88" s="28">
         <f>_xlfn.STDEV.P(D79:D83)</f>
         <v>20.827962782078174</v>
       </c>
-      <c r="E88" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" s="20">
+      <c r="E88" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="15">
         <f>_xlfn.STDEV.P(H79:H83)</f>
         <v>6.3935624060456338</v>
       </c>
-      <c r="I88" s="20">
+      <c r="I88" s="15">
         <f>_xlfn.STDEV.P(I79:I83)</f>
         <v>18.722172425217888</v>
       </c>
-      <c r="J88" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M88" s="20">
+      <c r="J88" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M88" s="15">
         <v>4.014278585250401</v>
       </c>
-      <c r="N88" s="20">
+      <c r="N88" s="15">
         <v>18.322431329080395</v>
       </c>
-      <c r="O88" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T88" s="11"/>
     </row>
-    <row r="89" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="18"/>
-      <c r="T89" s="16"/>
+    <row r="89" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="13"/>
+      <c r="T89" s="11"/>
     </row>
-    <row r="90" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
-      <c r="T90" s="16"/>
+    <row r="90" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="13"/>
+      <c r="T90" s="11"/>
     </row>
-    <row r="91" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="18"/>
-      <c r="T91" s="16"/>
+    <row r="91" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="13"/>
+      <c r="T91" s="11"/>
     </row>
-    <row r="92" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="18"/>
-      <c r="T92" s="16"/>
+    <row r="92" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13"/>
+      <c r="T92" s="11"/>
     </row>
-    <row r="93" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="18"/>
-      <c r="T93" s="16"/>
+    <row r="93" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="13"/>
+      <c r="T93" s="11"/>
     </row>
-    <row r="94" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
-      <c r="T94" s="16"/>
+    <row r="94" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="13"/>
+      <c r="T94" s="11"/>
     </row>
-    <row r="95" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="18"/>
-      <c r="T95" s="16"/>
+    <row r="95" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="13"/>
+      <c r="T95" s="11"/>
     </row>
-    <row r="96" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="18"/>
-      <c r="T96" s="16"/>
+    <row r="96" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="13"/>
+      <c r="T96" s="11"/>
     </row>
-    <row r="97" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="18"/>
-      <c r="T97" s="16"/>
+    <row r="97" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="T97" s="11"/>
     </row>
-    <row r="98" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="18"/>
-      <c r="T98" s="16"/>
+    <row r="98" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="13"/>
+      <c r="T98" s="11"/>
     </row>
-    <row r="99" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="21"/>
+    <row r="99" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="16"/>
     </row>
-    <row r="100" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="5"/>
+    <row r="100" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="40"/>
     </row>
-    <row r="102" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="22"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="23"/>
-      <c r="S102" s="23"/>
-      <c r="T102" s="24"/>
+    <row r="102" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="41"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="43"/>
     </row>
-    <row r="103" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="18"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="T103" s="16"/>
+    <row r="103" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="13"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="T103" s="11"/>
     </row>
-    <row r="104" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="26" t="s">
+    <row r="104" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="G104" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="H104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J104" s="5"/>
+      <c r="L104" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="G104" s="26" t="s">
+      <c r="M104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O104" s="5"/>
+      <c r="Q104" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I104" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J104" s="10"/>
-      <c r="L104" s="26" t="s">
+      <c r="R104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S104" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="M104" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N104" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O104" s="10"/>
-      <c r="Q104" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="R104" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S104" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T104" s="10"/>
-    </row>
-    <row r="105" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="14" t="s">
-        <v>6</v>
       </c>
       <c r="C105" s="1">
         <v>102.97</v>
@@ -23305,9 +23127,9 @@
       <c r="D105" s="1">
         <v>107.099188</v>
       </c>
-      <c r="E105" s="16"/>
-      <c r="G105" s="14" t="s">
-        <v>6</v>
+      <c r="E105" s="11"/>
+      <c r="G105" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="H105" s="1">
         <v>40.329000000000001</v>
@@ -23315,9 +23137,9 @@
       <c r="I105" s="1">
         <v>82.498931999999996</v>
       </c>
-      <c r="J105" s="16"/>
-      <c r="L105" s="14" t="s">
-        <v>6</v>
+      <c r="J105" s="11"/>
+      <c r="L105" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="M105" s="1">
         <v>138.566</v>
@@ -23325,9 +23147,9 @@
       <c r="N105" s="1">
         <v>192.95286899999999</v>
       </c>
-      <c r="O105" s="16"/>
-      <c r="Q105" s="14" t="s">
-        <v>7</v>
+      <c r="O105" s="11"/>
+      <c r="Q105" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="R105" s="1">
         <f>M112</f>
@@ -23337,11 +23159,11 @@
         <f>N112</f>
         <v>180.15037240000001</v>
       </c>
-      <c r="T105" s="16"/>
+      <c r="T105" s="11"/>
     </row>
-    <row r="106" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
-        <v>8</v>
+    <row r="106" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C106" s="1">
         <v>101.68</v>
@@ -23349,9 +23171,9 @@
       <c r="D106" s="1">
         <v>79.198443999999995</v>
       </c>
-      <c r="E106" s="16"/>
-      <c r="G106" s="14" t="s">
-        <v>8</v>
+      <c r="E106" s="11"/>
+      <c r="G106" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H106" s="1">
         <v>39.984000000000002</v>
@@ -23359,9 +23181,9 @@
       <c r="I106" s="1">
         <v>41.610183999999997</v>
       </c>
-      <c r="J106" s="16"/>
-      <c r="L106" s="14" t="s">
-        <v>8</v>
+      <c r="J106" s="11"/>
+      <c r="L106" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="M106" s="1">
         <v>138.81700000000001</v>
@@ -23369,9 +23191,9 @@
       <c r="N106" s="1">
         <v>205.80058399999999</v>
       </c>
-      <c r="O106" s="16"/>
-      <c r="Q106" s="14" t="s">
-        <v>9</v>
+      <c r="O106" s="11"/>
+      <c r="Q106" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="R106" s="1">
         <f>H112</f>
@@ -23381,11 +23203,11 @@
         <f>I112</f>
         <v>54.237206999999998</v>
       </c>
-      <c r="T106" s="16"/>
+      <c r="T106" s="11"/>
     </row>
-    <row r="107" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="14" t="s">
-        <v>10</v>
+    <row r="107" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C107" s="1">
         <v>106.717</v>
@@ -23393,9 +23215,9 @@
       <c r="D107" s="1">
         <v>150.24098000000001</v>
       </c>
-      <c r="E107" s="16"/>
-      <c r="G107" s="14" t="s">
-        <v>10</v>
+      <c r="E107" s="11"/>
+      <c r="G107" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H107" s="1">
         <v>40.356000000000002</v>
@@ -23403,9 +23225,9 @@
       <c r="I107" s="1">
         <v>35.400556999999999</v>
       </c>
-      <c r="J107" s="16"/>
-      <c r="L107" s="14" t="s">
-        <v>10</v>
+      <c r="J107" s="11"/>
+      <c r="L107" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="M107" s="1">
         <v>139.88499999999999</v>
@@ -23413,9 +23235,9 @@
       <c r="N107" s="1">
         <v>199.97241500000001</v>
       </c>
-      <c r="O107" s="16"/>
-      <c r="Q107" s="14" t="s">
-        <v>11</v>
+      <c r="O107" s="11"/>
+      <c r="Q107" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="R107" s="1">
         <f>C112</f>
@@ -23425,11 +23247,11 @@
         <f>D112</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="T107" s="16"/>
+      <c r="T107" s="11"/>
     </row>
-    <row r="108" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="14" t="s">
-        <v>12</v>
+    <row r="108" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C108" s="1">
         <v>103.81399999999999</v>
@@ -23437,9 +23259,9 @@
       <c r="D108" s="1">
         <v>146.27462</v>
       </c>
-      <c r="E108" s="16"/>
-      <c r="G108" s="14" t="s">
-        <v>12</v>
+      <c r="E108" s="11"/>
+      <c r="G108" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H108" s="1">
         <v>39.929000000000002</v>
@@ -23447,9 +23269,9 @@
       <c r="I108" s="1">
         <v>35.813851999999997</v>
       </c>
-      <c r="J108" s="16"/>
-      <c r="L108" s="14" t="s">
-        <v>12</v>
+      <c r="J108" s="11"/>
+      <c r="L108" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M108" s="1">
         <v>139.6</v>
@@ -23457,13 +23279,13 @@
       <c r="N108" s="1">
         <v>150.84999300000001</v>
       </c>
-      <c r="O108" s="16"/>
-      <c r="Q108" s="18"/>
-      <c r="T108" s="16"/>
+      <c r="O108" s="11"/>
+      <c r="Q108" s="13"/>
+      <c r="T108" s="11"/>
     </row>
-    <row r="109" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="14" t="s">
-        <v>13</v>
+    <row r="109" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C109" s="1">
         <v>103.205</v>
@@ -23471,9 +23293,9 @@
       <c r="D109" s="1">
         <v>91.627950999999996</v>
       </c>
-      <c r="E109" s="16"/>
-      <c r="G109" s="14" t="s">
-        <v>13</v>
+      <c r="E109" s="11"/>
+      <c r="G109" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H109" s="1">
         <v>39.134999999999998</v>
@@ -23481,9 +23303,9 @@
       <c r="I109" s="1">
         <v>75.86251</v>
       </c>
-      <c r="J109" s="16"/>
-      <c r="L109" s="14" t="s">
-        <v>13</v>
+      <c r="J109" s="11"/>
+      <c r="L109" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="M109" s="1">
         <v>137.89099999999999</v>
@@ -23491,27 +23313,27 @@
       <c r="N109" s="1">
         <v>151.17600100000001</v>
       </c>
-      <c r="O109" s="16"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="S109" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="T109" s="29" t="s">
-        <v>16</v>
+      <c r="O109" s="11"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T109" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="110" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="18"/>
-      <c r="E110" s="16"/>
-      <c r="G110" s="18"/>
-      <c r="J110" s="16"/>
-      <c r="L110" s="18"/>
-      <c r="O110" s="16"/>
-      <c r="Q110" s="30" t="s">
-        <v>17</v>
+    <row r="110" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="13"/>
+      <c r="E110" s="11"/>
+      <c r="G110" s="13"/>
+      <c r="J110" s="11"/>
+      <c r="L110" s="13"/>
+      <c r="O110" s="11"/>
+      <c r="Q110" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="R110" s="1">
         <f>AVERAGE(R105:R107)</f>
@@ -23521,44 +23343,44 @@
         <f>AVERAGE(S105:S107)</f>
         <v>116.42527199999999</v>
       </c>
-      <c r="T110" s="16">
+      <c r="T110" s="11">
         <f t="shared" ref="T110:T111" si="25">S110/R110</f>
         <v>1.236043791466779</v>
       </c>
     </row>
-    <row r="111" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="18"/>
-      <c r="C111" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J111" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="18"/>
-      <c r="M111" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N111" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O111" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q111" s="30" t="s">
-        <v>18</v>
+    <row r="111" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="13"/>
+      <c r="C111" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J111" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L111" s="13"/>
+      <c r="M111" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O111" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q111" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="R111" s="1">
         <f>MEDIAN(R105:R107)</f>
@@ -23568,14 +23390,14 @@
         <f>MEDIAN(S105:S107)</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="T111" s="16">
+      <c r="T111" s="11">
         <f t="shared" si="25"/>
         <v>1.1081340603334191</v>
       </c>
     </row>
-    <row r="112" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="30" t="s">
-        <v>17</v>
+    <row r="112" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C112" s="1">
         <f>AVERAGE(C105:C109)</f>
@@ -23585,12 +23407,12 @@
         <f>AVERAGE(D105:D109)</f>
         <v>114.88823659999998</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="11">
         <f>D112/C112</f>
         <v>1.1081340603334191</v>
       </c>
-      <c r="G112" s="30" t="s">
-        <v>17</v>
+      <c r="G112" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H112" s="1">
         <f>AVERAGE(H105:H109)</f>
@@ -23600,12 +23422,12 @@
         <f t="shared" ref="I112" si="26">AVERAGE(I105:I109)</f>
         <v>54.237206999999998</v>
       </c>
-      <c r="J112" s="16">
+      <c r="J112" s="11">
         <f t="shared" ref="J112:J113" si="27">I112/H112</f>
         <v>1.3577427615867181</v>
       </c>
-      <c r="L112" s="30" t="s">
-        <v>17</v>
+      <c r="L112" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="M112" s="1">
         <f t="shared" ref="M112:N112" si="28">AVERAGE(M105:M109)</f>
@@ -23615,28 +23437,28 @@
         <f t="shared" si="28"/>
         <v>180.15037240000001</v>
       </c>
-      <c r="O112" s="16">
+      <c r="O112" s="11">
         <f t="shared" ref="O112:O113" si="29">N112/M112</f>
         <v>1.2964954207142334</v>
       </c>
-      <c r="Q112" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R112" s="20">
+      <c r="Q112" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R112" s="15">
         <f>_xlfn.STDEV.P(R105:R107)</f>
         <v>40.971421487774741</v>
       </c>
-      <c r="S112" s="20">
+      <c r="S112" s="15">
         <f>_xlfn.STDEV.P(S105:S107)</f>
         <v>51.415323031353083</v>
       </c>
-      <c r="T112" s="21" t="s">
-        <v>20</v>
+      <c r="T112" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
-        <v>18</v>
+    <row r="113" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="C113" s="1">
         <f>MEDIAN(C105:C109)</f>
@@ -23646,12 +23468,12 @@
         <f>MEDIAN(D105:D109)</f>
         <v>107.099188</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="11">
         <f>D113/C113</f>
         <v>1.0377325517174556</v>
       </c>
-      <c r="G113" s="30" t="s">
-        <v>18</v>
+      <c r="G113" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="H113" s="1">
         <f t="shared" ref="H113:I113" si="30">MEDIAN(H105:H109)</f>
@@ -23661,12 +23483,12 @@
         <f t="shared" si="30"/>
         <v>41.610183999999997</v>
       </c>
-      <c r="J113" s="16">
+      <c r="J113" s="11">
         <f t="shared" si="27"/>
         <v>1.0406708683473389</v>
       </c>
-      <c r="L113" s="30" t="s">
-        <v>18</v>
+      <c r="L113" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="M113" s="1">
         <f t="shared" ref="M113:N113" si="31">MEDIAN(M105:M109)</f>
@@ -23676,117 +23498,117 @@
         <f t="shared" si="31"/>
         <v>192.95286899999999</v>
       </c>
-      <c r="O113" s="16">
+      <c r="O113" s="11">
         <f t="shared" si="29"/>
         <v>1.3899801105051974</v>
       </c>
-      <c r="T113" s="16"/>
+      <c r="T113" s="11"/>
     </row>
-    <row r="114" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="20">
+    <row r="114" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="15">
         <f>_xlfn.STDEV.P(C105:C109)</f>
         <v>1.6715867192580807</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="15">
         <f>_xlfn.STDEV.P(D105:D109)</f>
         <v>28.67191304728658</v>
       </c>
-      <c r="E114" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="20">
+      <c r="E114" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" s="15">
         <f t="shared" ref="H114" si="32">_xlfn.STDEV.P(H105:H109)</f>
         <v>0.44141617550787721</v>
       </c>
-      <c r="I114" s="20">
+      <c r="I114" s="15">
         <f>_xlfn.STDEV.P(I105:I109)</f>
         <v>20.591551337082336</v>
       </c>
-      <c r="J114" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M114" s="20">
+      <c r="J114" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M114" s="15">
         <f t="shared" ref="M114:N114" si="33">_xlfn.STDEV.P(M105:M109)</f>
         <v>0.71879549247334473</v>
       </c>
-      <c r="N114" s="20">
+      <c r="N114" s="15">
         <f t="shared" si="33"/>
         <v>24.136184777893302</v>
       </c>
-      <c r="O114" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T114" s="16"/>
+      <c r="O114" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T114" s="11"/>
     </row>
-    <row r="115" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="18"/>
-      <c r="T115" s="16"/>
+    <row r="115" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="13"/>
+      <c r="T115" s="11"/>
     </row>
-    <row r="116" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="18"/>
-      <c r="T116" s="16"/>
+    <row r="116" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="13"/>
+      <c r="T116" s="11"/>
     </row>
-    <row r="117" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="18"/>
-      <c r="T117" s="16"/>
+    <row r="117" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="13"/>
+      <c r="T117" s="11"/>
     </row>
-    <row r="118" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="18"/>
-      <c r="T118" s="16"/>
+    <row r="118" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="13"/>
+      <c r="T118" s="11"/>
     </row>
-    <row r="119" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="18"/>
-      <c r="T119" s="16"/>
+    <row r="119" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="13"/>
+      <c r="T119" s="11"/>
     </row>
-    <row r="120" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="18"/>
-      <c r="T120" s="16"/>
+    <row r="120" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="13"/>
+      <c r="T120" s="11"/>
     </row>
-    <row r="121" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="18"/>
-      <c r="T121" s="16"/>
+    <row r="121" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="13"/>
+      <c r="T121" s="11"/>
     </row>
-    <row r="122" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="18"/>
-      <c r="T122" s="16"/>
+    <row r="122" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="13"/>
+      <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="18"/>
-      <c r="T123" s="16"/>
+    <row r="123" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="13"/>
+      <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="18"/>
-      <c r="T124" s="16"/>
+    <row r="124" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="13"/>
+      <c r="T124" s="11"/>
     </row>
-    <row r="125" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="19"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
-      <c r="N125" s="20"/>
-      <c r="O125" s="20"/>
-      <c r="P125" s="20"/>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="20"/>
-      <c r="S125" s="20"/>
-      <c r="T125" s="21"/>
+    <row r="125" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erasmo/Desktop/GitHubClone/Progetto-Operating_systems_for_mobile_cloud_and_IoT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A2CA1-F311-2D44-BFA7-10562437AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8EC805-3FAD-43E8-A8E9-DBADDAECA566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="optVSnopt" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,7 +533,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -602,7 +602,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -746,7 +746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326436336"/>
@@ -808,7 +808,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="322954896"/>
@@ -856,7 +856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -870,7 +870,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -937,7 +937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1252,7 +1252,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1290,7 +1290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148970623"/>
@@ -1356,7 +1356,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1394,7 +1394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="152148671"/>
@@ -1436,7 +1436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1473,7 +1473,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1487,7 +1487,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1564,7 +1564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1720,7 +1720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143706399"/>
@@ -1782,7 +1782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67969567"/>
@@ -1830,7 +1830,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1844,7 +1844,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1913,7 +1913,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2069,7 +2069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224308367"/>
@@ -2131,7 +2131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81105487"/>
@@ -2179,7 +2179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2193,7 +2193,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2290,7 +2290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2446,7 +2446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80598719"/>
@@ -2508,7 +2508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67964767"/>
@@ -2556,7 +2556,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2570,7 +2570,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2637,7 +2637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2781,7 +2781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67594639"/>
@@ -2843,7 +2843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81118927"/>
@@ -2891,7 +2891,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2905,7 +2905,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2974,7 +2974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3130,7 +3130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367297264"/>
@@ -3192,7 +3192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="362817024"/>
@@ -3240,7 +3240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3254,7 +3254,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3331,7 +3331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3487,7 +3487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523895008"/>
@@ -3549,7 +3549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522431920"/>
@@ -3597,7 +3597,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3611,7 +3611,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3680,7 +3680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3836,7 +3836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523847888"/>
@@ -3898,7 +3898,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522431440"/>
@@ -3946,7 +3946,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3960,7 +3960,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4029,7 +4029,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4173,7 +4173,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523846896"/>
@@ -4235,7 +4235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522449680"/>
@@ -4283,7 +4283,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4297,7 +4297,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4364,7 +4364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4667,7 +4667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="386470944"/>
@@ -4726,7 +4726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="522433840"/>
@@ -4768,7 +4768,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4805,7 +4805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4819,7 +4819,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4888,7 +4888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5032,7 +5032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326425920"/>
@@ -5094,7 +5094,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295556336"/>
@@ -5142,7 +5142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5156,7 +5156,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5218,7 +5218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5730,7 +5730,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516853712"/>
@@ -5789,7 +5789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265968944"/>
@@ -5831,7 +5831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5861,7 +5861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5875,7 +5875,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5944,7 +5944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6100,7 +6100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326425424"/>
@@ -6162,7 +6162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="356817920"/>
@@ -6210,7 +6210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6224,7 +6224,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6301,7 +6301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6457,7 +6457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="326431376"/>
@@ -6519,7 +6519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="323024960"/>
@@ -6567,7 +6567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6581,7 +6581,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6650,7 +6650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6806,7 +6806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328385328"/>
@@ -6868,7 +6868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="293476416"/>
@@ -6916,7 +6916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6930,7 +6930,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6999,7 +6999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7155,7 +7155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175562928"/>
@@ -7217,7 +7217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="330422896"/>
@@ -7265,7 +7265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7279,7 +7279,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7348,7 +7348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7504,7 +7504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="286804512"/>
@@ -7566,7 +7566,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="359933712"/>
@@ -7614,7 +7614,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7628,7 +7628,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7697,7 +7697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7853,7 +7853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328401696"/>
@@ -7915,7 +7915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295925072"/>
@@ -7963,7 +7963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7977,7 +7977,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8044,7 +8044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8407,7 +8407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8445,7 +8445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="391293855"/>
@@ -8510,7 +8510,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8548,7 +8548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="397235647"/>
@@ -8590,7 +8590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8627,7 +8627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20061,15 +20061,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>110345</xdr:colOff>
+      <xdr:colOff>110346</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>42261</xdr:rowOff>
+      <xdr:rowOff>42262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1012228</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>194695</xdr:rowOff>
+      <xdr:colOff>946356</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>319549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20421,15 +20421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>431425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>281156</xdr:rowOff>
+      <xdr:colOff>640360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>563991</xdr:colOff>
+      <xdr:colOff>772926</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>103430</xdr:rowOff>
+      <xdr:rowOff>214043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20723,22 +20723,22 @@
   <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+      <selection activeCell="B2" sqref="B2:T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="25.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="16.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.1640625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.109375" style="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="16.109375" style="1"/>
+    <col min="11" max="11" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
@@ -20761,7 +20761,7 @@
       <c r="S2" s="39"/>
       <c r="T2" s="40"/>
     </row>
-    <row r="3" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -20782,7 +20782,7 @@
       <c r="S3" s="45"/>
       <c r="T3" s="46"/>
     </row>
-    <row r="4" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -20803,7 +20803,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
@@ -20829,7 +20829,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
@@ -20861,7 +20861,7 @@
       <c r="S6" s="32"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
@@ -20893,7 +20893,7 @@
       <c r="S7" s="32"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
@@ -20924,7 +20924,7 @@
       <c r="S8" s="32"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>29</v>
       </c>
@@ -20950,7 +20950,7 @@
       <c r="R9" s="32"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
         <v>30</v>
       </c>
@@ -20979,7 +20979,7 @@
       <c r="R10" s="32"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
@@ -21008,7 +21008,7 @@
       <c r="R11" s="47"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
@@ -21035,7 +21035,7 @@
       <c r="R12" s="47"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
@@ -21060,7 +21060,7 @@
       <c r="R13" s="47"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
@@ -21087,7 +21087,7 @@
       </c>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="L18" s="34" t="s">
         <v>12</v>
@@ -21189,7 +21189,7 @@
       </c>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="L19" s="34" t="s">
         <v>13</v>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="L20" s="34" t="s">
         <v>40</v>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -21247,11 +21247,11 @@
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
         <v>16</v>
       </c>
@@ -21274,7 +21274,7 @@
       <c r="S23" s="39"/>
       <c r="T23" s="40"/>
     </row>
-    <row r="24" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -21295,7 +21295,7 @@
       <c r="S24" s="42"/>
       <c r="T24" s="43"/>
     </row>
-    <row r="25" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -21306,7 +21306,7 @@
       <c r="K25" s="17"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>0</v>
       </c>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>4</v>
       </c>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>6</v>
       </c>
@@ -21436,7 +21436,7 @@
       </c>
       <c r="T28" s="11"/>
     </row>
-    <row r="29" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>8</v>
       </c>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="T29" s="11"/>
     </row>
-    <row r="30" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>10</v>
       </c>
@@ -21514,7 +21514,7 @@
       <c r="Q30" s="13"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="E32" s="11"/>
       <c r="G32" s="13"/>
@@ -21579,7 +21579,7 @@
         <v>1.3140639459189136</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="7" t="s">
         <v>37</v>
@@ -21626,7 +21626,7 @@
         <v>1.2458099041279143</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="s">
         <v>12</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="22" t="s">
         <v>13</v>
       </c>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>40</v>
       </c>
@@ -21780,49 +21780,49 @@
       </c>
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="T37" s="11"/>
     </row>
-    <row r="38" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="T38" s="11"/>
     </row>
-    <row r="39" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="T39" s="11"/>
     </row>
-    <row r="40" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="13"/>
       <c r="T40" s="11"/>
     </row>
-    <row r="41" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="13"/>
       <c r="T41" s="11"/>
     </row>
-    <row r="42" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="T42" s="11"/>
     </row>
-    <row r="43" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13"/>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
       <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -21843,8 +21843,8 @@
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="1:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="38" t="s">
         <v>25</v>
       </c>
@@ -21867,7 +21867,7 @@
       <c r="S49" s="39"/>
       <c r="T49" s="40"/>
     </row>
-    <row r="50" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
@@ -21888,7 +21888,7 @@
       <c r="S50" s="42"/>
       <c r="T50" s="43"/>
     </row>
-    <row r="51" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="13"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -21899,7 +21899,7 @@
       <c r="K51" s="17"/>
       <c r="T51" s="11"/>
     </row>
-    <row r="52" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>0</v>
       </c>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
         <v>4</v>
       </c>
@@ -21985,7 +21985,7 @@
       </c>
       <c r="T53" s="11"/>
     </row>
-    <row r="54" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>6</v>
       </c>
@@ -22029,7 +22029,7 @@
       </c>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>8</v>
       </c>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="T55" s="11"/>
     </row>
-    <row r="56" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
@@ -22107,7 +22107,7 @@
       <c r="Q56" s="13"/>
       <c r="T56" s="11"/>
     </row>
-    <row r="57" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>11</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="13"/>
       <c r="E58" s="11"/>
       <c r="G58" s="13"/>
@@ -22172,7 +22172,7 @@
         <v>1.146936779111067</v>
       </c>
     </row>
-    <row r="59" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="13"/>
       <c r="C59" s="7" t="s">
         <v>37</v>
@@ -22219,7 +22219,7 @@
         <v>1.1027587495980542</v>
       </c>
     </row>
-    <row r="60" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="22" t="s">
         <v>12</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
         <v>13</v>
       </c>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="T61" s="11"/>
     </row>
-    <row r="62" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="23" t="s">
         <v>40</v>
       </c>
@@ -22373,47 +22373,47 @@
       </c>
       <c r="T62" s="11"/>
     </row>
-    <row r="63" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="13"/>
       <c r="T63" s="11"/>
     </row>
-    <row r="64" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="13"/>
       <c r="T64" s="11"/>
     </row>
-    <row r="65" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="13"/>
       <c r="T65" s="11"/>
     </row>
-    <row r="66" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="13"/>
       <c r="T66" s="11"/>
     </row>
-    <row r="67" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="13"/>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="13"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="13"/>
       <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="13"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="13"/>
       <c r="T71" s="11"/>
     </row>
-    <row r="72" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
       <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -22434,8 +22434,8 @@
       <c r="S73" s="15"/>
       <c r="T73" s="16"/>
     </row>
-    <row r="74" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="38" t="s">
         <v>26</v>
       </c>
@@ -22458,7 +22458,7 @@
       <c r="S75" s="39"/>
       <c r="T75" s="40"/>
     </row>
-    <row r="76" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="41"/>
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
@@ -22479,7 +22479,7 @@
       <c r="S76" s="42"/>
       <c r="T76" s="43"/>
     </row>
-    <row r="77" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="13"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -22490,7 +22490,7 @@
       <c r="K77" s="17"/>
       <c r="T77" s="11"/>
     </row>
-    <row r="78" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
         <v>0</v>
       </c>
@@ -22532,7 +22532,7 @@
       </c>
       <c r="T78" s="5"/>
     </row>
-    <row r="79" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>4</v>
       </c>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="T79" s="11"/>
     </row>
-    <row r="80" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>6</v>
       </c>
@@ -22620,7 +22620,7 @@
       </c>
       <c r="T80" s="11"/>
     </row>
-    <row r="81" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>8</v>
       </c>
@@ -22664,7 +22664,7 @@
       </c>
       <c r="T81" s="11"/>
     </row>
-    <row r="82" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>10</v>
       </c>
@@ -22698,7 +22698,7 @@
       <c r="Q82" s="13"/>
       <c r="T82" s="11"/>
     </row>
-    <row r="83" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>11</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="27"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -22765,7 +22765,7 @@
         <v>1.178570370601534</v>
       </c>
     </row>
-    <row r="85" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="27"/>
       <c r="C85" s="7" t="s">
         <v>37</v>
@@ -22812,7 +22812,7 @@
         <v>1.1336425549452696</v>
       </c>
     </row>
-    <row r="86" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="22" t="s">
         <v>12</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="22" t="s">
         <v>13</v>
       </c>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="T87" s="11"/>
     </row>
-    <row r="88" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="23" t="s">
         <v>40</v>
       </c>
@@ -22958,47 +22958,47 @@
       </c>
       <c r="T88" s="11"/>
     </row>
-    <row r="89" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="13"/>
       <c r="T89" s="11"/>
     </row>
-    <row r="90" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="13"/>
       <c r="T90" s="11"/>
     </row>
-    <row r="91" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="13"/>
       <c r="T91" s="11"/>
     </row>
-    <row r="92" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="13"/>
       <c r="T92" s="11"/>
     </row>
-    <row r="93" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="13"/>
       <c r="T93" s="11"/>
     </row>
-    <row r="94" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="13"/>
       <c r="T94" s="11"/>
     </row>
-    <row r="95" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="13"/>
       <c r="T95" s="11"/>
     </row>
-    <row r="96" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="13"/>
       <c r="T96" s="11"/>
     </row>
-    <row r="97" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="13"/>
       <c r="T97" s="11"/>
     </row>
-    <row r="98" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="T98" s="11"/>
     </row>
-    <row r="99" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -23019,8 +23019,8 @@
       <c r="S99" s="15"/>
       <c r="T99" s="16"/>
     </row>
-    <row r="100" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="38" t="s">
         <v>15</v>
       </c>
@@ -23043,7 +23043,7 @@
       <c r="S101" s="39"/>
       <c r="T101" s="40"/>
     </row>
-    <row r="102" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="41"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
@@ -23064,7 +23064,7 @@
       <c r="S102" s="42"/>
       <c r="T102" s="43"/>
     </row>
-    <row r="103" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="13"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -23075,7 +23075,7 @@
       <c r="K103" s="17"/>
       <c r="T103" s="11"/>
     </row>
-    <row r="104" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="18" t="s">
         <v>0</v>
       </c>
@@ -23117,7 +23117,7 @@
       </c>
       <c r="T104" s="5"/>
     </row>
-    <row r="105" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>4</v>
       </c>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="T105" s="11"/>
     </row>
-    <row r="106" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>6</v>
       </c>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="T106" s="11"/>
     </row>
-    <row r="107" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>8</v>
       </c>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="T107" s="11"/>
     </row>
-    <row r="108" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>10</v>
       </c>
@@ -23283,7 +23283,7 @@
       <c r="Q108" s="13"/>
       <c r="T108" s="11"/>
     </row>
-    <row r="109" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
         <v>11</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="13"/>
       <c r="E110" s="11"/>
       <c r="G110" s="13"/>
@@ -23348,7 +23348,7 @@
         <v>1.236043791466779</v>
       </c>
     </row>
-    <row r="111" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="13"/>
       <c r="C111" s="7" t="s">
         <v>37</v>
@@ -23395,7 +23395,7 @@
         <v>1.1081340603334191</v>
       </c>
     </row>
-    <row r="112" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="22" t="s">
         <v>12</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="22" t="s">
         <v>13</v>
       </c>
@@ -23504,7 +23504,7 @@
       </c>
       <c r="T113" s="11"/>
     </row>
-    <row r="114" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="23" t="s">
         <v>40</v>
       </c>
@@ -23549,47 +23549,47 @@
       </c>
       <c r="T114" s="11"/>
     </row>
-    <row r="115" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="13"/>
       <c r="T115" s="11"/>
     </row>
-    <row r="116" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="13"/>
       <c r="T116" s="11"/>
     </row>
-    <row r="117" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="13"/>
       <c r="T117" s="11"/>
     </row>
-    <row r="118" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="13"/>
       <c r="T118" s="11"/>
     </row>
-    <row r="119" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="13"/>
       <c r="T119" s="11"/>
     </row>
-    <row r="120" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="13"/>
       <c r="T120" s="11"/>
     </row>
-    <row r="121" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="13"/>
       <c r="T121" s="11"/>
     </row>
-    <row r="122" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="13"/>
       <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="13"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="2:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="13"/>
       <c r="T124" s="11"/>
     </row>
-    <row r="125" spans="2:20" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:20" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B125" s="14"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>

--- a/Risultati.xlsx
+++ b/Risultati.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8EC805-3FAD-43E8-A8E9-DBADDAECA566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0994B06-8CB2-451F-AE24-D147BA6B3829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="optVSnopt" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">optVSnopt!$C$12:$C$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">optVSnopt!$C$15:$C$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">optVSnopt!$C$6:$C$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">optVSnopt!$C$9:$C$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">optVSnopt!$D$12:$D$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">optVSnopt!$D$15:$D$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">optVSnopt!$D$6:$D$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">optVSnopt!$D$9:$D$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -888,7 +898,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -902,13 +912,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>NoOpt</a:t>
+              <a:t>NoOpt vs Opt: generale</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs Opt: generale</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -925,7 +930,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -944,8 +949,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:bubbleChart>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -954,27 +958,44 @@
             <c:v>NoOpt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$M$6</c:f>
@@ -999,7 +1020,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F296-42DF-947F-0F125ADE1791}"/>
@@ -1013,27 +1043,44 @@
             <c:v>Opt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$M$18</c:f>
@@ -1058,7 +1105,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F296-42DF-947F-0F125ADE1791}"/>
@@ -1072,27 +1128,44 @@
             <c:v>OptP1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$M$10</c:f>
@@ -1117,7 +1190,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F296-42DF-947F-0F125ADE1791}"/>
@@ -1131,27 +1213,44 @@
             <c:v>OptP2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$M$14</c:f>
@@ -1176,7 +1275,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E02-4E2C-BE64-76DA7C6BCB4B}"/>
@@ -1191,9 +1299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:bubbleScale val="50"/>
+        <c:showNegBubbles val="0"/>
         <c:axId val="152148671"/>
         <c:axId val="148970623"/>
-      </c:scatterChart>
+      </c:bubbleChart>
       <c:valAx>
         <c:axId val="152148671"/>
         <c:scaling>
@@ -1201,6 +1311,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1208,7 +1332,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1240,7 +1364,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1262,14 +1386,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1305,6 +1423,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1312,7 +1444,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1344,7 +1476,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1366,14 +1498,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1410,7 +1536,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7995,7 +8121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8009,13 +8135,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>NoOpt</a:t>
+              <a:t>NoOpt vs Opt: scenari</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs Opt: scenari</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8032,7 +8153,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8051,8 +8172,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:bubbleChart>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8061,27 +8181,44 @@
             <c:v>Opt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$C$6:$C$8</c:f>
@@ -8118,7 +8255,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E50A-4F2D-BFD1-C2438F76230B}"/>
@@ -8132,27 +8284,44 @@
             <c:v>NoOpt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$C$15:$C$17</c:f>
@@ -8189,7 +8358,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0560-419E-8A88-08E1CDE7BF83}"/>
@@ -8203,27 +8387,44 @@
             <c:v>OptP1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$C$9:$C$11</c:f>
@@ -8260,7 +8461,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-0560-419E-8A88-08E1CDE7BF83}"/>
@@ -8274,27 +8490,44 @@
             <c:v>OptP2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
               <c:f>optVSnopt!$C$12:$C$14</c:f>
@@ -8331,7 +8564,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:bubbleSize>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C92-42BE-AD34-A89FE824E4C2}"/>
@@ -8346,9 +8594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:bubbleScale val="50"/>
+        <c:showNegBubbles val="0"/>
         <c:axId val="397235647"/>
         <c:axId val="391293855"/>
-      </c:scatterChart>
+      </c:bubbleChart>
       <c:valAx>
         <c:axId val="397235647"/>
         <c:scaling>
@@ -8363,7 +8613,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8395,7 +8645,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8417,14 +8667,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8459,6 +8703,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -8466,7 +8724,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8498,7 +8756,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8520,14 +8778,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8564,7 +8816,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9955,6 +10207,508 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10470,7 +11224,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10986,7 +11740,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11502,7 +12256,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12018,7 +12772,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12534,7 +13288,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13050,7 +13804,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13566,7 +14320,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14082,8 +14836,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14110,8 +14864,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14212,7 +14966,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -14244,10 +14998,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -14287,23 +15041,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14408,8 +15161,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14541,20 +15294,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14568,17 +15320,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -14598,8 +15339,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14626,8 +15367,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14728,7 +15469,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -14760,10 +15501,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -14803,22 +15544,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14923,8 +15665,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15056,19 +15798,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15082,6 +15825,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15101,8 +15855,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15129,8 +15883,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15231,7 +15985,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -15263,10 +16017,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -15306,23 +16060,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -15427,8 +16180,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15560,20 +16313,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15587,17 +16339,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15617,8 +16358,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15645,8 +16386,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15747,7 +16488,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -15779,10 +16520,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -15822,22 +16563,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -15942,8 +16684,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -16075,19 +16817,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -16101,6 +16844,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -16120,7 +16874,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16636,7 +17390,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17152,7 +17906,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17668,7 +18422,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18184,7 +18938,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18700,8 +19454,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18712,7 +19466,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -18725,11 +19479,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -18742,7 +19496,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18758,7 +19512,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -18802,20 +19556,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18824,13 +19578,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -18842,30 +19596,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -18905,23 +19660,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -18968,14 +19722,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -19026,8 +19774,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -19065,20 +19813,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -19091,6 +19839,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -19122,7 +19881,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -19131,14 +19890,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -19159,20 +19917,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -19186,17 +19943,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -19204,530 +19950,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -20722,8 +20946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
